--- a/gd/道具系统/活力值系统.xlsx
+++ b/gd/道具系统/活力值系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28755" yWindow="255" windowWidth="34395" windowHeight="12180" activeTab="1"/>
+    <workbookView xWindow="28755" yWindow="15" windowWidth="28710" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="240">
   <si>
     <t>设一个普通对局要</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -766,10 +766,6 @@
   </si>
   <si>
     <t>下次活力的恢复时间</t>
-  </si>
-  <si>
-    <t>energy_button_use</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
@@ -998,6 +994,26 @@
   </si>
   <si>
     <t>活力药使用次数在每日0点重置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家因为升级导致活力值达到5000以上时，超出5000的部分不会获得</t>
+  </si>
+  <si>
+    <t>energy_supple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_queding</t>
+  </si>
+  <si>
+    <t>ui_quxiao</t>
+  </si>
+  <si>
+    <t>exp_use</t>
+  </si>
+  <si>
+    <t>按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1434,7 +1450,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1599,6 +1615,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1665,6 +1689,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1677,13 +1704,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3395,13 +3416,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3875,13 +3896,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3931,13 +3952,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3987,13 +4008,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4052,13 +4073,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4104,13 +4125,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4156,13 +4177,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4208,13 +4229,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4260,13 +4281,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4312,13 +4333,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4364,13 +4385,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>742951</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4418,13 +4439,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4475,13 +4496,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4538,13 +4559,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>771526</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4592,13 +4613,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4649,13 +4670,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>714376</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4703,13 +4724,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4772,13 +4793,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4836,13 +4857,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4905,13 +4926,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4961,13 +4982,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5039,13 +5060,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5128,13 +5149,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5200,13 +5221,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5254,13 +5275,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5306,13 +5327,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5400,13 +5421,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5457,13 +5478,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5514,13 +5535,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>642744</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>208421</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5566,13 +5587,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5616,13 +5637,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5666,13 +5687,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5754,13 +5775,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5808,13 +5829,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6335,17 +6356,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68" t="s">
+      <c r="C11" s="71"/>
+      <c r="D11" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -6360,11 +6381,11 @@
         <v>33</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -6381,11 +6402,11 @@
       <c r="C13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -6400,11 +6421,11 @@
         <v>35</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="79"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
@@ -6419,11 +6440,11 @@
         <v>36</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
@@ -6438,11 +6459,11 @@
         <v>38</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="67"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
@@ -6457,11 +6478,11 @@
         <v>39</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="67"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
@@ -6476,11 +6497,11 @@
         <v>40</v>
       </c>
       <c r="C18" s="25"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
@@ -6668,10 +6689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE222"/>
+  <dimension ref="A1:AE216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6750,10 +6771,10 @@
         <v>143</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="76"/>
+      <c r="E10" s="80"/>
       <c r="F10" s="13" t="s">
         <v>20</v>
       </c>
@@ -6763,8 +6784,8 @@
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="11" t="s">
         <v>82</v>
       </c>
@@ -7247,7 +7268,7 @@
         <v>93</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
@@ -7316,8 +7337,8 @@
       </c>
     </row>
     <row r="82" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="C82" s="90" t="s">
-        <v>234</v>
+      <c r="C82" s="63" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="2:31" x14ac:dyDescent="0.15">
@@ -7327,7 +7348,7 @@
     </row>
     <row r="84" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C84" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="2:31" x14ac:dyDescent="0.15">
@@ -7343,65 +7364,66 @@
         <v>120</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C87" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="D87" s="90" t="s">
-        <v>229</v>
-      </c>
-      <c r="O87" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="89" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B89" s="2" t="s">
+      <c r="D87" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="O87" s="62" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="64"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="64" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B90" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4" t="s">
+    <row r="91" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-    </row>
-    <row r="91" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="92" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="11" t="s">
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+    </row>
+    <row r="92" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="H93" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="U92" s="40"/>
-      <c r="V92" s="41"/>
-      <c r="AD92" s="40"/>
-    </row>
-    <row r="93" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="U93" s="40"/>
       <c r="V93" s="41"/>
       <c r="AD93" s="40"/>
-      <c r="AE93" s="41"/>
     </row>
     <row r="94" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="U94" s="40"/>
@@ -7421,311 +7443,316 @@
       <c r="AD96" s="40"/>
       <c r="AE96" s="41"/>
     </row>
-    <row r="97" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="U97" s="40"/>
-      <c r="V97" s="43"/>
+      <c r="V97" s="41"/>
       <c r="AD97" s="40"/>
-      <c r="AE97" s="43"/>
-    </row>
-    <row r="98" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE97" s="41"/>
+    </row>
+    <row r="98" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="U98" s="40"/>
-      <c r="V98" s="41"/>
+      <c r="V98" s="43"/>
       <c r="AD98" s="40"/>
-      <c r="AE98" s="41"/>
-    </row>
-    <row r="99" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
+      <c r="AE98" s="43"/>
+    </row>
+    <row r="99" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="U99" s="40"/>
-      <c r="V99" s="42"/>
+      <c r="V99" s="41"/>
       <c r="AD99" s="40"/>
-      <c r="AE99" s="42"/>
-    </row>
-    <row r="100" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="AE99" s="41"/>
+    </row>
+    <row r="100" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
       <c r="U100" s="40"/>
       <c r="V100" s="42"/>
       <c r="AD100" s="40"/>
       <c r="AE100" s="42"/>
     </row>
-    <row r="101" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="4"/>
-      <c r="H101" s="11" t="s">
+    <row r="101" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U101" s="40"/>
+      <c r="V101" s="42"/>
+      <c r="AD101" s="40"/>
+      <c r="AE101" s="42"/>
+    </row>
+    <row r="102" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="4"/>
+      <c r="H102" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="U101" s="44"/>
-      <c r="V101" s="45"/>
-      <c r="AD101" s="44"/>
-      <c r="AE101" s="45"/>
-    </row>
-    <row r="102" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="U102" s="44"/>
+      <c r="V102" s="45"/>
+      <c r="AD102" s="44"/>
+      <c r="AE102" s="45"/>
+    </row>
     <row r="103" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="104" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="105" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="106" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="107" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="H107" s="11" t="s">
+    <row r="107" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H108" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="109" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="110" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="11" t="s">
+    <row r="110" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="111" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C111" s="40" t="s">
+    <row r="112" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C112" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="42"/>
-      <c r="Q111" s="4"/>
-    </row>
-    <row r="112" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C112" s="40"/>
-      <c r="D112" s="41" t="s">
-        <v>154</v>
-      </c>
+      <c r="D112" s="41"/>
       <c r="E112" s="41"/>
       <c r="F112" s="42"/>
+      <c r="Q112" s="4"/>
     </row>
     <row r="113" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C113" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="D113" s="41"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="41" t="s">
+        <v>154</v>
+      </c>
       <c r="E113" s="41"/>
       <c r="F113" s="42"/>
     </row>
     <row r="114" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C114" s="40"/>
-      <c r="D114" s="41" t="s">
-        <v>156</v>
-      </c>
+      <c r="C114" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D114" s="41"/>
       <c r="E114" s="41"/>
       <c r="F114" s="42"/>
     </row>
     <row r="115" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C115" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="D115" s="41"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="41" t="s">
+        <v>156</v>
+      </c>
       <c r="E115" s="41"/>
       <c r="F115" s="42"/>
     </row>
     <row r="116" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C116" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="D116" s="42" t="s">
-        <v>199</v>
-      </c>
+      <c r="C116" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D116" s="41"/>
       <c r="E116" s="41"/>
-      <c r="F116" s="4" t="s">
-        <v>196</v>
-      </c>
+      <c r="F116" s="42"/>
     </row>
     <row r="117" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C117" s="46" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="D117" s="42" t="s">
         <v>198</v>
       </c>
       <c r="E117" s="41"/>
-      <c r="F117" s="11" t="s">
-        <v>200</v>
+      <c r="F117" s="42" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="4"/>
       <c r="C118" s="46" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E118" s="41"/>
       <c r="F118" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="G118" s="4"/>
+        <v>199</v>
+      </c>
     </row>
     <row r="119" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="4"/>
       <c r="C119" s="46" t="s">
         <v>163</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E119" s="41"/>
       <c r="F119" s="11" t="s">
-        <v>187</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G119" s="4"/>
     </row>
     <row r="120" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C120" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="D120" s="11" t="s">
-        <v>192</v>
+      <c r="D120" s="42" t="s">
+        <v>191</v>
       </c>
       <c r="E120" s="41"/>
       <c r="F120" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C121" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E121" s="41"/>
+      <c r="F121" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C122" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="D121" s="45"/>
-      <c r="E121" s="41"/>
-    </row>
-    <row r="122" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="45"/>
+      <c r="E122" s="41"/>
+    </row>
+    <row r="123" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D123" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E122" s="41"/>
-    </row>
-    <row r="123" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D123" s="11" t="s">
+      <c r="E123" s="41"/>
+    </row>
+    <row r="124" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D124" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E123" s="45"/>
-      <c r="F123" s="42"/>
-    </row>
-    <row r="124" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C124" s="11" t="s">
+      <c r="E124" s="45"/>
+      <c r="F124" s="42"/>
+    </row>
+    <row r="125" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C125" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F124" s="43"/>
-    </row>
-    <row r="125" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D125" s="11" t="s">
+      <c r="F125" s="43"/>
+    </row>
+    <row r="126" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D126" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F125" s="43"/>
-    </row>
-    <row r="126" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="11" t="s">
+      <c r="F126" s="43"/>
+    </row>
+    <row r="127" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="127" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D127" s="11" t="s">
+    <row r="128" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D128" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="128" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="129" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D129" s="11" t="s">
+    <row r="129" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="130" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D130" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="130" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E130" s="11" t="s">
+    <row r="131" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E131" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="131" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="132" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E132" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
+    <row r="132" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="133" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E133" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E134" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E135" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="135" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="136" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="137" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="138" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="11" t="s">
+    <row r="138" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="139" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C139" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D139" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="139" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="140" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="141" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="142" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D142" s="11" t="s">
+    <row r="142" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D143" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="143" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="144" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="145" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="146" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D146" s="11" t="s">
+    <row r="146" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D147" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="147" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="148" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="149" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="150" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="151" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="152" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C152" s="11" t="s">
+    <row r="152" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="153" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B153" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="153" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C153" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
     </row>
     <row r="154" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C154" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+    </row>
+    <row r="155" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C155" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="155" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="156" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C156" s="11" t="s">
+    <row r="156" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="157" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C157" s="11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="157" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="11" t="s">
+    <row r="158" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B158" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C157" s="11" t="s">
+      <c r="C158" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="158" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="159" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="160" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="161" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -7744,85 +7771,95 @@
     <row r="174" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="175" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="176" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="177" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="M177" s="4"/>
-    </row>
-    <row r="178" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="43" t="s">
+    <row r="177" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="178" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M178" s="4"/>
+    </row>
+    <row r="179" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B179" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C179" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D178" s="11" t="s">
+      <c r="D179" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="M179" s="4"/>
+    </row>
+    <row r="180" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B180" s="43"/>
+      <c r="C180" s="50"/>
+    </row>
+    <row r="181" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B181" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="J181" s="43"/>
+      <c r="M181" s="4"/>
+    </row>
+    <row r="182" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B182" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C182" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="M178" s="4"/>
-    </row>
-    <row r="179" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="43"/>
-      <c r="C179" s="50"/>
-    </row>
-    <row r="180" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="J180" s="43"/>
-      <c r="M180" s="4"/>
-    </row>
-    <row r="181" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="C181" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="M181" s="4"/>
-    </row>
-    <row r="182" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C182" s="11" t="s">
+      <c r="M182" s="4"/>
+    </row>
+    <row r="183" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C183" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="M182" s="4"/>
-    </row>
-    <row r="183" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="L183" s="4"/>
       <c r="M183" s="4"/>
     </row>
     <row r="184" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="K184" s="4"/>
       <c r="L184" s="4"/>
       <c r="M184" s="4"/>
+      <c r="R184" s="4"/>
     </row>
     <row r="185" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B185" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="K185" s="4"/>
       <c r="L185" s="4"/>
       <c r="M185" s="4"/>
       <c r="R185" s="4"/>
     </row>
     <row r="186" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B186" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="C186" s="11" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="K186" s="4"/>
       <c r="L186" s="4"/>
       <c r="M186" s="4"/>
-      <c r="R186" s="4"/>
-    </row>
-    <row r="187" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N186" s="4"/>
+      <c r="O186" s="4"/>
+      <c r="P186" s="4"/>
+      <c r="Q186" s="4"/>
+    </row>
+    <row r="187" spans="2:18" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B187" s="46" t="s">
+        <v>163</v>
+      </c>
       <c r="C187" s="11" t="s">
-        <v>136</v>
+        <v>239</v>
+      </c>
+      <c r="D187" s="93" t="s">
+        <v>236</v>
       </c>
       <c r="K187" s="4"/>
       <c r="L187" s="4"/>
@@ -7831,26 +7868,32 @@
       <c r="O187" s="4"/>
       <c r="P187" s="4"/>
       <c r="Q187" s="4"/>
-    </row>
-    <row r="188" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R187" s="4"/>
+    </row>
+    <row r="188" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D188" s="93" t="s">
+        <v>237</v>
+      </c>
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
       <c r="M188" s="4"/>
-      <c r="N188" s="4"/>
-      <c r="O188" s="4"/>
-      <c r="P188" s="4"/>
-      <c r="Q188" s="4"/>
       <c r="R188" s="4"/>
     </row>
     <row r="189" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B189" s="11" t="s">
+        <v>229</v>
+      </c>
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
       <c r="M189" s="4"/>
-      <c r="R189" s="4"/>
+      <c r="N189" s="4"/>
+      <c r="O189" s="4"/>
+      <c r="P189" s="4"/>
+      <c r="Q189" s="4"/>
     </row>
     <row r="190" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B190" s="11" t="s">
-        <v>230</v>
+      <c r="C190" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="K190" s="4"/>
       <c r="L190" s="4"/>
@@ -7859,38 +7902,42 @@
       <c r="O190" s="4"/>
       <c r="P190" s="4"/>
       <c r="Q190" s="4"/>
+      <c r="R190" s="4"/>
     </row>
     <row r="191" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C191" s="11" t="s">
-        <v>181</v>
+      <c r="B191" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="K191" s="4"/>
       <c r="L191" s="4"/>
       <c r="M191" s="4"/>
-      <c r="N191" s="4"/>
-      <c r="O191" s="4"/>
-      <c r="P191" s="4"/>
-      <c r="Q191" s="4"/>
       <c r="R191" s="4"/>
     </row>
-    <row r="192" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B192" s="11" t="s">
-        <v>178</v>
+    <row r="192" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B192" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G192" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="K192" s="4"/>
       <c r="L192" s="4"/>
       <c r="M192" s="4"/>
+      <c r="N192" s="4"/>
+      <c r="O192" s="4"/>
+      <c r="P192" s="4"/>
+      <c r="Q192" s="4"/>
       <c r="R192" s="4"/>
     </row>
-    <row r="193" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="D193" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="G193" s="11" t="s">
-        <v>207</v>
+    <row r="193" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B193" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="K193" s="4"/>
       <c r="L193" s="4"/>
@@ -7902,12 +7949,6 @@
       <c r="R193" s="4"/>
     </row>
     <row r="194" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B194" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="K194" s="4"/>
       <c r="L194" s="4"/>
       <c r="M194" s="4"/>
@@ -7927,23 +7968,32 @@
       <c r="Q195" s="4"/>
       <c r="R195" s="4"/>
     </row>
-    <row r="196" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="K196" s="4"/>
-      <c r="L196" s="4"/>
-      <c r="M196" s="4"/>
-      <c r="N196" s="4"/>
-      <c r="O196" s="4"/>
-      <c r="P196" s="4"/>
-      <c r="Q196" s="4"/>
-      <c r="R196" s="4"/>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
+      <c r="H196" s="11"/>
+      <c r="I196" s="11"/>
+      <c r="J196" s="11"/>
+      <c r="T196" s="11"/>
+      <c r="U196" s="11"/>
+      <c r="V196" s="11"/>
+      <c r="W196" s="11"/>
+      <c r="X196" s="11"/>
+      <c r="Y196" s="11"/>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
-      <c r="D197" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="F197" s="11"/>
       <c r="G197" s="11"/>
       <c r="H197" s="11"/>
@@ -7956,199 +8006,127 @@
       <c r="X197" s="11"/>
       <c r="Y197" s="11"/>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
+    <row r="198" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E198" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F198" s="11"/>
-      <c r="G198" s="11"/>
-      <c r="H198" s="11"/>
-      <c r="I198" s="11"/>
-      <c r="J198" s="11"/>
-      <c r="T198" s="11"/>
-      <c r="U198" s="11"/>
-      <c r="V198" s="11"/>
-      <c r="W198" s="11"/>
-      <c r="X198" s="11"/>
-      <c r="Y198" s="11"/>
-    </row>
-    <row r="199" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="K198" s="4"/>
+      <c r="L198" s="4"/>
+      <c r="M198" s="4"/>
+      <c r="N198" s="4"/>
+      <c r="O198" s="4"/>
+      <c r="P198" s="4"/>
+      <c r="Q198" s="4"/>
+      <c r="R198" s="4"/>
+    </row>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A199" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
       <c r="E199" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K199" s="4"/>
-      <c r="L199" s="4"/>
-      <c r="M199" s="4"/>
-      <c r="N199" s="4"/>
-      <c r="O199" s="4"/>
-      <c r="P199" s="4"/>
-      <c r="Q199" s="4"/>
-      <c r="R199" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="11"/>
+      <c r="J199" s="11"/>
+      <c r="T199" s="11"/>
+      <c r="U199" s="11"/>
+      <c r="V199" s="11"/>
+      <c r="W199" s="11"/>
+      <c r="X199" s="11"/>
+      <c r="Y199" s="11"/>
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A200" s="11" t="s">
-        <v>137</v>
-      </c>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
-      <c r="E200" s="11" t="s">
-        <v>121</v>
-      </c>
+      <c r="D200" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E200" s="11"/>
       <c r="F200" s="11"/>
       <c r="G200" s="11"/>
       <c r="H200" s="11"/>
       <c r="I200" s="11"/>
       <c r="J200" s="11"/>
-      <c r="T200" s="11"/>
-      <c r="U200" s="11"/>
-      <c r="V200" s="11"/>
-      <c r="W200" s="11"/>
-      <c r="X200" s="11"/>
-      <c r="Y200" s="11"/>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B201" s="11"/>
-      <c r="C201" s="11"/>
-      <c r="D201" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E201" s="11"/>
-      <c r="F201" s="11"/>
-      <c r="G201" s="11"/>
-      <c r="H201" s="11"/>
-      <c r="I201" s="11"/>
-      <c r="J201" s="11"/>
-    </row>
-    <row r="202" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E202" s="11" t="s">
+    </row>
+    <row r="201" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E201" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="I202" s="4"/>
-      <c r="J202" s="4"/>
-      <c r="K202" s="4"/>
-      <c r="L202" s="4"/>
-      <c r="M202" s="4"/>
-      <c r="N202" s="4"/>
-      <c r="O202" s="4"/>
-      <c r="P202" s="4"/>
-      <c r="Q202" s="4"/>
-      <c r="R202" s="4"/>
-      <c r="T202" s="4"/>
-      <c r="U202" s="4"/>
-      <c r="V202" s="4"/>
-      <c r="W202" s="4"/>
-      <c r="X202" s="4"/>
-      <c r="Y202" s="4"/>
+      <c r="I201" s="4"/>
+      <c r="J201" s="4"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="4"/>
+      <c r="M201" s="4"/>
+      <c r="N201" s="4"/>
+      <c r="O201" s="4"/>
+      <c r="P201" s="4"/>
+      <c r="Q201" s="4"/>
+      <c r="R201" s="4"/>
+      <c r="T201" s="4"/>
+      <c r="U201" s="4"/>
+      <c r="V201" s="4"/>
+      <c r="W201" s="4"/>
+      <c r="X201" s="4"/>
+      <c r="Y201" s="4"/>
+    </row>
+    <row r="202" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
+      <c r="H202" s="11"/>
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
-      <c r="D203" s="2"/>
-      <c r="F203" s="11"/>
-      <c r="G203" s="11"/>
-      <c r="H203" s="11"/>
-      <c r="T203" s="11"/>
-      <c r="U203" s="11"/>
-      <c r="V203" s="11"/>
-      <c r="W203" s="11"/>
-      <c r="X203" s="11"/>
-      <c r="Y203" s="11"/>
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B204" s="11"/>
-      <c r="C204" s="11"/>
-      <c r="D204" s="11"/>
-      <c r="F204" s="11"/>
-      <c r="G204" s="11"/>
-      <c r="H204" s="11"/>
+      <c r="B204" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C204" s="39" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
-      <c r="D205" s="11"/>
-      <c r="F205" s="11"/>
-      <c r="G205" s="11"/>
-      <c r="H205" s="11"/>
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B206" s="11"/>
       <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
-      <c r="E206" s="11"/>
-      <c r="F206" s="11"/>
-      <c r="G206" s="11"/>
-      <c r="H206" s="11"/>
-      <c r="T206" s="11"/>
-      <c r="U206" s="11"/>
-      <c r="V206" s="11"/>
-      <c r="W206" s="11"/>
-      <c r="X206" s="11"/>
-      <c r="Y206" s="11"/>
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
-      <c r="E207" s="11"/>
-      <c r="F207" s="11"/>
-      <c r="G207" s="11"/>
-      <c r="H207" s="11"/>
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B208" s="11"/>
-      <c r="C208" s="11"/>
-      <c r="E208" s="11"/>
-      <c r="F208" s="11"/>
-      <c r="G208" s="11"/>
-      <c r="H208" s="11"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B210" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C210" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B211" s="11"/>
       <c r="C211" s="11"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B212" s="11"/>
       <c r="C212" s="11"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B213" s="11"/>
-      <c r="C213" s="11"/>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B214" s="11"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B215" s="11"/>
-      <c r="C215" s="11"/>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C217" s="11"/>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B218" s="11"/>
-      <c r="C218" s="11"/>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B219" s="11"/>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B221" s="11"/>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B222" s="2"/>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B216" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8171,7 +8149,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8214,15 +8192,15 @@
         <v>61</v>
       </c>
       <c r="G2" s="35"/>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="87"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
       <c r="O2" s="33" t="s">
         <v>139</v>
       </c>
@@ -8249,27 +8227,27 @@
       <c r="A3" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
       <c r="E3" s="49">
         <v>1</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="81" t="s">
+      <c r="G3" s="87"/>
+      <c r="H3" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
@@ -8279,28 +8257,28 @@
       <c r="U3" s="37"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="88"/>
+      <c r="H4" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="B4" s="77" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="79"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="83"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
@@ -8311,19 +8289,19 @@
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="29"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="79"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="83"/>
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
@@ -8334,19 +8312,19 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="29"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="30"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="79"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="83"/>
       <c r="O6" s="37"/>
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
@@ -8357,19 +8335,19 @@
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="29"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="79"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="83"/>
       <c r="O7" s="37"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
@@ -8380,19 +8358,19 @@
     </row>
     <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="29"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="79"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
@@ -8403,19 +8381,19 @@
     </row>
     <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="29"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="79"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="83"/>
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
@@ -8426,19 +8404,19 @@
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="29"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="79"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="83"/>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
@@ -8449,19 +8427,19 @@
     </row>
     <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="29"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="79"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="83"/>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -8472,19 +8450,19 @@
     </row>
     <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="29"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="79"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="83"/>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -8495,19 +8473,19 @@
     </row>
     <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="29"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="79"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="83"/>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
@@ -8518,19 +8496,19 @@
     </row>
     <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="29"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="79"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="83"/>
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
@@ -8541,19 +8519,19 @@
     </row>
     <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="29"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="79"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="83"/>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
@@ -8564,19 +8542,19 @@
     </row>
     <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="29"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="79"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="83"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
@@ -8587,19 +8565,19 @@
     </row>
     <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="29"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="79"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="83"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
@@ -8610,19 +8588,19 @@
     </row>
     <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="29"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="79"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="83"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
@@ -8633,19 +8611,19 @@
     </row>
     <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="29"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="79"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="83"/>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
@@ -10177,7 +10155,7 @@
         <v>186</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>194</v>
@@ -10258,10 +10236,10 @@
     </row>
     <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>201</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>202</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="54"/>
@@ -10287,10 +10265,10 @@
     </row>
     <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="54"/>
@@ -10403,7 +10381,7 @@
     </row>
     <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" s="51" t="s">
         <v>179</v>
@@ -10432,10 +10410,10 @@
     </row>
     <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="52"/>
@@ -10461,10 +10439,10 @@
     </row>
     <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="58" t="s">
         <v>223</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>224</v>
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="52"/>
@@ -11057,55 +11035,55 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/gd/道具系统/活力值系统.xlsx
+++ b/gd/道具系统/活力值系统.xlsx
@@ -588,14 +588,6 @@
   </si>
   <si>
     <t>点击可以使用该类型的活力道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可再点击并状态变灰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为每日已达到上限</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1014,6 +1006,14 @@
   </si>
   <si>
     <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为已达到上限,按钮点击后不再消耗道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击弹出提示:已到达上限</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1623,6 +1623,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1668,33 +1669,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1704,7 +1678,33 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4006,14 +4006,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -4024,7 +4024,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476375" y="18011775"/>
+          <a:off x="3800475" y="19688175"/>
           <a:ext cx="1533525" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4519,9 +4519,8 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -6147,7 +6146,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6356,17 +6355,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72" t="s">
+      <c r="C11" s="72"/>
+      <c r="D11" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="74"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -6381,11 +6380,11 @@
         <v>33</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -6402,11 +6401,11 @@
       <c r="C13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -6421,11 +6420,11 @@
         <v>35</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="79"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
@@ -6440,11 +6439,11 @@
         <v>36</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
@@ -6459,11 +6458,11 @@
         <v>38</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
@@ -6478,11 +6477,11 @@
         <v>39</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
@@ -6497,11 +6496,11 @@
         <v>40</v>
       </c>
       <c r="C18" s="25"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
@@ -6691,8 +6690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6771,10 +6770,10 @@
         <v>143</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="80"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="13" t="s">
         <v>20</v>
       </c>
@@ -6784,8 +6783,8 @@
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="11" t="s">
         <v>82</v>
       </c>
@@ -6799,13 +6798,13 @@
     <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>119</v>
@@ -6822,7 +6821,7 @@
     <row r="15" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="C15" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -6831,13 +6830,13 @@
     <row r="17" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -6868,10 +6867,10 @@
     </row>
     <row r="23" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -7140,7 +7139,7 @@
     <row r="62" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B62" s="2"/>
       <c r="C62" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -7268,7 +7267,7 @@
         <v>93</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
@@ -7338,7 +7337,7 @@
     </row>
     <row r="82" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C82" s="63" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="2:31" x14ac:dyDescent="0.15">
@@ -7348,7 +7347,7 @@
     </row>
     <row r="84" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C84" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="2:31" x14ac:dyDescent="0.15">
@@ -7364,25 +7363,25 @@
         <v>120</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="87" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C87" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D87" s="63" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O87" s="62" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B88" s="64"/>
       <c r="C88" s="65"/>
       <c r="D88" s="64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="2:31" x14ac:dyDescent="0.15">
@@ -7416,7 +7415,7 @@
     <row r="92" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="93" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B93" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H93" s="11" t="s">
         <v>149</v>
@@ -7481,7 +7480,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="U101" s="40"/>
       <c r="V101" s="42"/>
@@ -7491,7 +7490,7 @@
     <row r="102" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="4"/>
       <c r="H102" s="11" t="s">
-        <v>150</v>
+        <v>239</v>
       </c>
       <c r="U102" s="44"/>
       <c r="V102" s="45"/>
@@ -7505,19 +7504,19 @@
     <row r="107" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="108" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H108" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="110" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="111" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B111" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C112" s="40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D112" s="41"/>
       <c r="E112" s="41"/>
@@ -7527,14 +7526,14 @@
     <row r="113" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C113" s="40"/>
       <c r="D113" s="41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E113" s="41"/>
       <c r="F113" s="42"/>
     </row>
     <row r="114" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C114" s="40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D114" s="41"/>
       <c r="E114" s="41"/>
@@ -7543,14 +7542,14 @@
     <row r="115" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C115" s="40"/>
       <c r="D115" s="41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E115" s="41"/>
       <c r="F115" s="42"/>
     </row>
     <row r="116" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C116" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D116" s="41"/>
       <c r="E116" s="41"/>
@@ -7558,89 +7557,89 @@
     </row>
     <row r="117" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C117" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D117" s="42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E117" s="41"/>
       <c r="F117" s="42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C118" s="46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E118" s="41"/>
       <c r="F118" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="119" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B119" s="4"/>
       <c r="C119" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E119" s="41"/>
       <c r="F119" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G119" s="4"/>
     </row>
     <row r="120" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C120" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E120" s="41"/>
       <c r="F120" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C121" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E121" s="41"/>
       <c r="F121" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C122" s="44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D122" s="45"/>
       <c r="E122" s="41"/>
     </row>
     <row r="123" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D123" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E123" s="41"/>
     </row>
     <row r="124" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D124" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E124" s="45"/>
       <c r="F124" s="42"/>
     </row>
     <row r="125" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C125" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F125" s="43"/>
     </row>
@@ -7652,18 +7651,18 @@
     </row>
     <row r="127" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C127" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D128" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="130" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D130" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -7721,7 +7720,7 @@
     <row r="152" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="153" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B153" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>115</v>
@@ -7742,7 +7741,7 @@
     <row r="156" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="157" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C157" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -7777,13 +7776,13 @@
     </row>
     <row r="179" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B179" s="43" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M179" s="4"/>
     </row>
@@ -7793,17 +7792,17 @@
     </row>
     <row r="181" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B181" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J181" s="43"/>
       <c r="M181" s="4"/>
     </row>
     <row r="182" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B182" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C182" s="47" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -7811,13 +7810,13 @@
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
       <c r="I182" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M182" s="4"/>
     </row>
     <row r="183" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C183" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M183" s="4"/>
     </row>
@@ -7832,7 +7831,7 @@
         <v>57</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K185" s="4"/>
       <c r="L185" s="4"/>
@@ -7853,13 +7852,13 @@
     </row>
     <row r="187" spans="2:18" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B187" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D187" s="93" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="D187" s="66" t="s">
+        <v>234</v>
       </c>
       <c r="K187" s="4"/>
       <c r="L187" s="4"/>
@@ -7871,8 +7870,8 @@
       <c r="R187" s="4"/>
     </row>
     <row r="188" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D188" s="93" t="s">
-        <v>237</v>
+      <c r="D188" s="66" t="s">
+        <v>235</v>
       </c>
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
@@ -7881,7 +7880,7 @@
     </row>
     <row r="189" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B189" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
@@ -7893,7 +7892,7 @@
     </row>
     <row r="190" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C190" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K190" s="4"/>
       <c r="L190" s="4"/>
@@ -7906,7 +7905,7 @@
     </row>
     <row r="191" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B191" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K191" s="4"/>
       <c r="L191" s="4"/>
@@ -7915,13 +7914,13 @@
     </row>
     <row r="192" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B192" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G192" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K192" s="4"/>
       <c r="L192" s="4"/>
@@ -7934,10 +7933,10 @@
     </row>
     <row r="193" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B193" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K193" s="4"/>
       <c r="L193" s="4"/>
@@ -8192,15 +8191,15 @@
         <v>61</v>
       </c>
       <c r="G2" s="35"/>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84"/>
       <c r="O2" s="33" t="s">
         <v>139</v>
       </c>
@@ -8227,27 +8226,27 @@
       <c r="A3" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="49">
         <v>1</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="85" t="s">
+      <c r="G3" s="90"/>
+      <c r="H3" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="86"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
@@ -8258,27 +8257,27 @@
     </row>
     <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="93" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="81" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="83"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="86"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
@@ -8289,19 +8288,19 @@
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="29"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="30"/>
       <c r="F5" s="89"/>
       <c r="G5" s="89"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="83"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="86"/>
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
@@ -8312,19 +8311,19 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="29"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="30"/>
       <c r="F6" s="89"/>
       <c r="G6" s="89"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="83"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="86"/>
       <c r="O6" s="37"/>
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
@@ -8335,19 +8334,19 @@
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="29"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="30"/>
       <c r="F7" s="89"/>
       <c r="G7" s="89"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="83"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="86"/>
       <c r="O7" s="37"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
@@ -8358,19 +8357,19 @@
     </row>
     <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="29"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="30"/>
       <c r="F8" s="89"/>
       <c r="G8" s="89"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="83"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="86"/>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
@@ -8381,19 +8380,19 @@
     </row>
     <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="29"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="30"/>
       <c r="F9" s="89"/>
       <c r="G9" s="89"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="83"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="86"/>
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
@@ -8404,19 +8403,19 @@
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="29"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
       <c r="E10" s="30"/>
       <c r="F10" s="89"/>
       <c r="G10" s="89"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="83"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="86"/>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
@@ -8427,19 +8426,19 @@
     </row>
     <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="29"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="30"/>
       <c r="F11" s="89"/>
       <c r="G11" s="89"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="83"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="86"/>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -8450,19 +8449,19 @@
     </row>
     <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="29"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="30"/>
       <c r="F12" s="89"/>
       <c r="G12" s="89"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="83"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="86"/>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -8473,19 +8472,19 @@
     </row>
     <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="29"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="30"/>
       <c r="F13" s="89"/>
       <c r="G13" s="89"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="83"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="86"/>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
@@ -8496,19 +8495,19 @@
     </row>
     <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="29"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86"/>
       <c r="E14" s="30"/>
       <c r="F14" s="89"/>
       <c r="G14" s="89"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="83"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="86"/>
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
@@ -8519,19 +8518,19 @@
     </row>
     <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="29"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="30"/>
       <c r="F15" s="89"/>
       <c r="G15" s="89"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="83"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="86"/>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
@@ -8542,19 +8541,19 @@
     </row>
     <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="29"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="30"/>
       <c r="F16" s="89"/>
       <c r="G16" s="89"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="83"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="86"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
@@ -8565,19 +8564,19 @@
     </row>
     <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="29"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="30"/>
       <c r="F17" s="89"/>
       <c r="G17" s="89"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="83"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="86"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
@@ -8588,19 +8587,19 @@
     </row>
     <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="29"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="29"/>
       <c r="F18" s="89"/>
       <c r="G18" s="89"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="83"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="86"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
@@ -8611,19 +8610,19 @@
     </row>
     <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="29"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="29"/>
       <c r="F19" s="89"/>
       <c r="G19" s="89"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="83"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="86"/>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
@@ -8673,25 +8672,23 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="H19:N19"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
@@ -8708,23 +8705,25 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="H4:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10152,13 +10151,13 @@
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
@@ -10207,10 +10206,10 @@
     </row>
     <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C4" s="58"/>
       <c r="D4" s="52"/>
@@ -10236,10 +10235,10 @@
     </row>
     <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="51" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="54"/>
@@ -10265,10 +10264,10 @@
     </row>
     <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="54"/>
@@ -10294,10 +10293,10 @@
     </row>
     <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="51" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="54"/>
@@ -10323,10 +10322,10 @@
     </row>
     <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="51" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="54"/>
@@ -10352,10 +10351,10 @@
     </row>
     <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="51" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="56"/>
@@ -10381,10 +10380,10 @@
     </row>
     <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="58"/>
       <c r="D10" s="52"/>
@@ -10410,10 +10409,10 @@
     </row>
     <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="52"/>
@@ -10439,10 +10438,10 @@
     </row>
     <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="51" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="52"/>
@@ -11035,55 +11034,55 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/gd/道具系统/活力值系统.xlsx
+++ b/gd/道具系统/活力值系统.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="242">
   <si>
     <t>设一个普通对局要</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -706,10 +706,6 @@
   </si>
   <si>
     <t>多语言:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下次活力得恢复时间:</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1014,6 +1010,17 @@
   </si>
   <si>
     <t>点击弹出提示:已到达上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值增加:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.3</t>
+  </si>
+  <si>
+    <t>修改文档关于使用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1450,7 +1457,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1669,6 +1676,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1678,33 +1712,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3875,16 +3883,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>下次活力的恢复时间</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>:</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>活力值增加</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>  03:59</a:t>
+            <a:t>:03:59</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -6146,7 +6150,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6154,10 +6158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B36" sqref="B35:B36"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6626,15 +6630,24 @@
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="1:15" ht="14.45" x14ac:dyDescent="0.4">
-      <c r="A24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="26">
+        <v>42325</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="16"/>
+      <c r="G24" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="I24" s="16" t="s">
+        <v>241</v>
+      </c>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
@@ -6643,23 +6656,12 @@
       <c r="O24" s="16"/>
     </row>
     <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="A25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -6668,6 +6670,33 @@
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6690,8 +6719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6833,10 +6862,10 @@
         <v>180</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -7267,7 +7296,7 @@
         <v>93</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
@@ -7337,7 +7366,7 @@
     </row>
     <row r="82" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C82" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="2:31" x14ac:dyDescent="0.15">
@@ -7347,7 +7376,7 @@
     </row>
     <row r="84" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C84" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="2:31" x14ac:dyDescent="0.15">
@@ -7363,7 +7392,7 @@
         <v>120</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7371,17 +7400,17 @@
         <v>161</v>
       </c>
       <c r="D87" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="O87" s="62" t="s">
-        <v>222</v>
+        <v>225</v>
+      </c>
+      <c r="O87" s="94" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B88" s="64"/>
       <c r="C88" s="65"/>
       <c r="D88" s="64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="2:31" x14ac:dyDescent="0.15">
@@ -7480,7 +7509,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U101" s="40"/>
       <c r="V101" s="42"/>
@@ -7490,7 +7519,7 @@
     <row r="102" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="4"/>
       <c r="H102" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U102" s="44"/>
       <c r="V102" s="45"/>
@@ -7560,23 +7589,23 @@
         <v>161</v>
       </c>
       <c r="D117" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E117" s="41"/>
       <c r="F117" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C118" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D118" s="42" t="s">
         <v>194</v>
-      </c>
-      <c r="D118" s="42" t="s">
-        <v>195</v>
       </c>
       <c r="E118" s="41"/>
       <c r="F118" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7585,11 +7614,11 @@
         <v>161</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E119" s="41"/>
       <c r="F119" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G119" s="4"/>
     </row>
@@ -7598,11 +7627,11 @@
         <v>161</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E120" s="41"/>
       <c r="F120" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7610,11 +7639,11 @@
         <v>161</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E121" s="41"/>
       <c r="F121" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="122" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -7720,7 +7749,7 @@
     <row r="152" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="153" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B153" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>115</v>
@@ -7779,10 +7808,10 @@
         <v>158</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M179" s="4"/>
     </row>
@@ -7802,7 +7831,7 @@
         <v>161</v>
       </c>
       <c r="C182" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -7810,7 +7839,7 @@
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
       <c r="I182" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M182" s="4"/>
     </row>
@@ -7855,10 +7884,10 @@
         <v>161</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D187" s="66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K187" s="4"/>
       <c r="L187" s="4"/>
@@ -7871,7 +7900,7 @@
     </row>
     <row r="188" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D188" s="66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
@@ -7880,7 +7909,7 @@
     </row>
     <row r="189" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B189" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
@@ -7920,7 +7949,7 @@
         <v>177</v>
       </c>
       <c r="G192" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K192" s="4"/>
       <c r="L192" s="4"/>
@@ -7936,7 +7965,7 @@
         <v>178</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K193" s="4"/>
       <c r="L193" s="4"/>
@@ -8191,15 +8220,15 @@
         <v>61</v>
       </c>
       <c r="G2" s="35"/>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="84"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="93"/>
       <c r="O2" s="33" t="s">
         <v>139</v>
       </c>
@@ -8226,27 +8255,27 @@
       <c r="A3" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="49">
         <v>1</v>
       </c>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="87" t="s">
+      <c r="G3" s="88"/>
+      <c r="H3" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="88"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
@@ -8257,27 +8286,27 @@
     </row>
     <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="89"/>
+      <c r="H4" s="83" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="93" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="91"/>
-      <c r="H4" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="86"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
@@ -8288,19 +8317,19 @@
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="29"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="86"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="84"/>
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
@@ -8311,19 +8340,19 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="29"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="30"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="86"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="84"/>
       <c r="O6" s="37"/>
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
@@ -8334,19 +8363,19 @@
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="29"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="86"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="84"/>
       <c r="O7" s="37"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
@@ -8357,19 +8386,19 @@
     </row>
     <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="29"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="86"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="84"/>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
@@ -8380,19 +8409,19 @@
     </row>
     <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="29"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="86"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="84"/>
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
@@ -8403,19 +8432,19 @@
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="29"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="86"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="84"/>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
@@ -8426,19 +8455,19 @@
     </row>
     <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="29"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="86"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="84"/>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -8449,19 +8478,19 @@
     </row>
     <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="29"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="86"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="84"/>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -8472,19 +8501,19 @@
     </row>
     <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="29"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="86"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="84"/>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
@@ -8495,19 +8524,19 @@
     </row>
     <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="29"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="86"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="84"/>
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
@@ -8518,19 +8547,19 @@
     </row>
     <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="29"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="86"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="84"/>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
@@ -8541,19 +8570,19 @@
     </row>
     <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="29"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="86"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="84"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
@@ -8564,19 +8593,19 @@
     </row>
     <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="29"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="86"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="84"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
@@ -8587,19 +8616,19 @@
     </row>
     <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="29"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="86"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="84"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
@@ -8610,19 +8639,19 @@
     </row>
     <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="29"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="86"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="84"/>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
@@ -8672,23 +8701,25 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="H14:N14"/>
     <mergeCell ref="H19:N19"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
@@ -8705,25 +8736,23 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10139,7 +10168,7 @@
   <dimension ref="A2:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A32"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10151,13 +10180,13 @@
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
@@ -10206,10 +10235,10 @@
     </row>
     <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="58"/>
       <c r="D4" s="52"/>
@@ -10235,10 +10264,10 @@
     </row>
     <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>198</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>199</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="54"/>
@@ -10264,10 +10293,10 @@
     </row>
     <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="54"/>
@@ -10293,10 +10322,10 @@
     </row>
     <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="54"/>
@@ -10322,10 +10351,10 @@
     </row>
     <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="54"/>
@@ -10351,10 +10380,10 @@
     </row>
     <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="56"/>
@@ -10380,7 +10409,7 @@
     </row>
     <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" s="51" t="s">
         <v>177</v>
@@ -10409,10 +10438,10 @@
     </row>
     <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="52"/>
@@ -10438,10 +10467,10 @@
     </row>
     <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="58" t="s">
         <v>220</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>221</v>
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="52"/>
@@ -11034,55 +11063,55 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/gd/道具系统/活力值系统.xlsx
+++ b/gd/道具系统/活力值系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28755" yWindow="15" windowWidth="28710" windowHeight="12180" activeTab="1"/>
+    <workbookView xWindow="585" yWindow="-90" windowWidth="27765" windowHeight="12330" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -14,8 +14,9 @@
     <sheet name="自用" sheetId="1" r:id="rId5"/>
     <sheet name="多语言" sheetId="7" r:id="rId6"/>
     <sheet name="工作时间" sheetId="8" r:id="rId7"/>
+    <sheet name="反馈" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="274">
   <si>
     <t>设一个普通对局要</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -230,10 +231,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>星</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>有关会议</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -479,10 +476,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>按钮变灰，不可用，并在剩余数量位置出现“已达到上限”提示并不能点击使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>活力补充</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -540,10 +533,6 @@
   </si>
   <si>
     <t>svn://192.168.199.122/cms/language/翻译需求.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当本日已达到使用次数上限时,出现灰态使用按钮,并不可点击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -583,10 +572,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当药水有剩余次数时且药水道具数量为0时,玩家可以点击药水使用,一次使用一个,此时按钮变化变为"购买&amp;使用"按钮+消耗的钻石数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>点击可以使用该类型的活力道具</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -705,18 +690,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>多语言:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>energy_ hint</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>energy_Supple</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -751,9 +728,6 @@
   <si>
     <t>翻译</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下次活力的恢复时间</t>
   </si>
   <si>
     <t>多语言</t>
@@ -788,11 +762,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">请问是否花费     购买并使用一个XXX?
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>energy_hint_buy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -801,10 +770,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>energy_check_unhint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>使用条件：玩家活力值使用次数未达到上限</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -856,10 +821,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>energy_hint_max</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>活力值已达到最大数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -875,10 +836,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>按钮状态切换</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>当使用任何可使活力达到5000以上的操作时,则使操作不可完成,并弹出通用警告形式提示框,提示内容为"活力值已达到最大数量."</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -895,92 +852,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>请问是否花费钻石（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>icon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>购买并使用一个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>活力药剂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>道具名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)?</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>活力药使用次数在每日0点重置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1020,7 +891,182 @@
     <t>Ver 0.3</t>
   </si>
   <si>
-    <t>修改文档关于使用</t>
+    <t>Ver 0.4</t>
+  </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文档关于使用 次数用尽,且道具数量为0的情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归修改确认界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买并使用一个XXX么?   第二行显示具体的道具及价格数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX通过格式检索出来为该道具的名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买并使用一个?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在剩余数量位置出现“已达到上限”此时点击提示"已达到上限"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time to next energy :</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy&amp;Use</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spend   to buy and use one?</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't show again for current session.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy_supple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit reached</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remaining today</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Energy</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>im_recordhuoli_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>im_recordhuoli_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言:</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>当药水有剩余次数时且药水道具数量为0时,玩家可以点击药水使用,一次使用一个,此时按钮变化变为"购买&amp;使用"按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当活力药已无剩余使用次数，且玩家未拥有此活力药时，按钮显示为购买使用，点击按钮，提示已达到上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要添加每个活力值道具类型对应的现有数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能添加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI界面,快速使用界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在每个ICON的左下部位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现添加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速购买和功能显示不足需要添加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个活力值档位购买间隙太窄,需要调节上下间隙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面布局调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字体超出问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经通过调整排面解决.目前钻石价格显示在第二行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当本日已达到使用次数上限时,按钮点击使用后弹出提示已达到上限.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示购买二级界面,上面的关闭按钮功能没有实现,   解决:这个功能界面没有关闭按钮.请增加关闭功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力倒计时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已验收通过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买和使用购买时,需要增加一个活力值增加的弹出提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值增加  {0} 点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy_get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 获得 {0} 点活力值{活力值ICON}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1031,7 +1077,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1165,12 +1211,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1210,6 +1262,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,7 +1533,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1583,9 +1659,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1619,9 +1692,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1631,6 +1701,28 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1712,7 +1804,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5062,95 +5153,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="圆角矩形 80"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10496550" y="28336875"/>
-          <a:ext cx="1581150" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="190500" dist="228600" dir="2700000" algn="ctr">
-            <a:srgbClr val="000000">
-              <a:alpha val="30000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront">
-            <a:rot lat="0" lon="0" rev="0"/>
-          </a:camera>
-          <a:lightRig rig="glow" dir="t">
-            <a:rot lat="0" lon="0" rev="4800000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d prstMaterial="matte">
-          <a:bevelT w="127000" h="63500"/>
-        </a:sp3d>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1"/>
-            <a:t>使用</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5214,320 +5216,6 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1"/>
             <a:t>使用</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="圆角矩形 31"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3790950" y="30527625"/>
-          <a:ext cx="5095874" cy="3095625"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="矩形 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3800475" y="30956250"/>
-          <a:ext cx="5105400" cy="3133725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="TextBox 82"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4248150" y="31461074"/>
-          <a:ext cx="4314825" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>请问是否花费   钻石（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>icon</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>）     购买并使用一个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>活力药剂</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>](</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>道具名称</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>)?</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="圆角矩形 35"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4019550" y="38014275"/>
-          <a:ext cx="1514475" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
-            <a:t>取消</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="圆角矩形 83"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7038975" y="38023800"/>
-          <a:ext cx="1304925" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
-            <a:t>确定</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5776,80 +5464,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="圆角矩形 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4200525" y="37576125"/>
-          <a:ext cx="257175" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="TextBox 40"/>
+        <xdr:cNvPr id="42" name="TextBox 41"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4543425" y="37595175"/>
-          <a:ext cx="1809750" cy="238125"/>
+          <a:off x="3009900" y="20421600"/>
+          <a:ext cx="219075" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5884,12 +5518,365 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>本次登录不再提示该界面</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="TextBox 86"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000375" y="21183600"/>
+          <a:ext cx="219075" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="TextBox 87"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000375" y="21983700"/>
+          <a:ext cx="219075" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>170721</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>209047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图片 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924175" y="33070800"/>
+          <a:ext cx="5838096" cy="4028572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>513686</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="342900"/>
+          <a:ext cx="5314286" cy="3295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638095</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="4286250"/>
+          <a:ext cx="638095" cy="695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="4743450"/>
+          <a:ext cx="200025" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56478</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>47191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="6172200"/>
+          <a:ext cx="5380953" cy="3476191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6160,8 +6147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6174,7 +6161,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="17"/>
@@ -6212,7 +6199,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
@@ -6288,7 +6275,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="20"/>
@@ -6359,17 +6346,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73" t="s">
+      <c r="C11" s="80"/>
+      <c r="D11" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="74"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="82"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -6384,11 +6371,11 @@
         <v>33</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -6405,11 +6392,11 @@
       <c r="C13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -6424,11 +6411,11 @@
         <v>35</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
@@ -6443,11 +6430,11 @@
         <v>36</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
@@ -6462,11 +6449,11 @@
         <v>38</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
@@ -6481,11 +6468,11 @@
         <v>39</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
@@ -6500,11 +6487,11 @@
         <v>40</v>
       </c>
       <c r="C18" s="25"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="78"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
@@ -6593,7 +6580,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="16"/>
@@ -6608,7 +6595,7 @@
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="26">
         <v>42304</v>
@@ -6617,11 +6604,11 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
@@ -6633,7 +6620,7 @@
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="16" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C24" s="26">
         <v>42325</v>
@@ -6642,11 +6629,11 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
@@ -6657,13 +6644,22 @@
     </row>
     <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="26">
+        <v>42326</v>
+      </c>
       <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="16"/>
+      <c r="G25" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="I25" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
@@ -6673,19 +6669,19 @@
     </row>
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="C26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="D26" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="E26" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -6717,10 +6713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE216"/>
+  <dimension ref="A1:AE217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M154" sqref="M154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6736,30 +6732,30 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -6774,35 +6770,35 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="D10" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="81"/>
+      <c r="D10" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="89"/>
       <c r="F10" s="13" t="s">
         <v>20</v>
       </c>
@@ -6812,10 +6808,10 @@
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
       <c r="F11" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>21</v>
@@ -6827,19 +6823,19 @@
     <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -6850,40 +6846,40 @@
     <row r="15" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="C15" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
-      <c r="C17" s="11" t="s">
-        <v>180</v>
+      <c r="C17" s="46" t="s">
+        <v>249</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="D20" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6891,15 +6887,15 @@
     </row>
     <row r="22" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C22" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6908,7 +6904,7 @@
     <row r="25" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -7144,31 +7140,31 @@
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B59" s="2"/>
       <c r="C59" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B60" s="2"/>
       <c r="C60" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B61" s="2"/>
       <c r="C61" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B62" s="2"/>
       <c r="C62" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -7176,18 +7172,18 @@
     </row>
     <row r="64" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B65" s="2"/>
       <c r="C65" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -7196,7 +7192,7 @@
         <v>150</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -7215,7 +7211,7 @@
     <row r="68" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2"/>
       <c r="C68" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -7237,25 +7233,25 @@
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B70" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B71" s="2"/>
       <c r="C71" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D71" s="4">
         <v>6</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B72" s="2"/>
       <c r="C72" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D72" s="4">
         <v>12</v>
@@ -7267,7 +7263,7 @@
     <row r="73" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B73" s="2"/>
       <c r="C73" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D73" s="4">
         <v>6</v>
@@ -7293,10 +7289,10 @@
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
@@ -7316,7 +7312,7 @@
     <row r="76" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B76" s="2"/>
       <c r="C76" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F76" s="4">
         <f>D78*E78+D79*E79+D80*E80</f>
@@ -7325,7 +7321,7 @@
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.15">
       <c r="D77" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>19</v>
@@ -7333,7 +7329,7 @@
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C78" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D78" s="4">
         <v>10</v>
@@ -7344,7 +7340,7 @@
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C79" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D79" s="4">
         <v>5</v>
@@ -7355,7 +7351,7 @@
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C80" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D80" s="4">
         <v>3</v>
@@ -7365,18 +7361,18 @@
       </c>
     </row>
     <row r="82" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="C82" s="63" t="s">
-        <v>230</v>
+      <c r="C82" s="62" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C84" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="2:31" x14ac:dyDescent="0.15">
@@ -7384,48 +7380,48 @@
         <v>24</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="2:31" x14ac:dyDescent="0.15">
       <c r="D86" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C87" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="D87" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="O87" s="94" t="s">
-        <v>221</v>
+        <v>157</v>
+      </c>
+      <c r="D87" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="O87" s="65" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="64"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="64" t="s">
-        <v>231</v>
+      <c r="B88" s="62"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="62" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -7444,10 +7440,10 @@
     <row r="92" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="93" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B93" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="U93" s="40"/>
       <c r="V93" s="41"/>
@@ -7509,7 +7505,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="U101" s="40"/>
       <c r="V101" s="42"/>
@@ -7519,7 +7515,7 @@
     <row r="102" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="4"/>
       <c r="H102" s="11" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="U102" s="44"/>
       <c r="V102" s="45"/>
@@ -7533,19 +7529,19 @@
     <row r="107" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="108" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H108" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="110" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="111" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B111" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C112" s="40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D112" s="41"/>
       <c r="E112" s="41"/>
@@ -7555,14 +7551,14 @@
     <row r="113" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C113" s="40"/>
       <c r="D113" s="41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E113" s="41"/>
       <c r="F113" s="42"/>
     </row>
     <row r="114" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C114" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D114" s="41"/>
       <c r="E114" s="41"/>
@@ -7571,14 +7567,14 @@
     <row r="115" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C115" s="40"/>
       <c r="D115" s="41" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E115" s="41"/>
       <c r="F115" s="42"/>
     </row>
     <row r="116" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C116" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D116" s="41"/>
       <c r="E116" s="41"/>
@@ -7586,133 +7582,133 @@
     </row>
     <row r="117" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C117" s="46" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D117" s="42" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E117" s="41"/>
       <c r="F117" s="42" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="118" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C118" s="46" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E118" s="41"/>
       <c r="F118" s="11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B119" s="4"/>
       <c r="C119" s="46" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E119" s="41"/>
       <c r="F119" s="11" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G119" s="4"/>
     </row>
     <row r="120" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C120" s="46" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E120" s="41"/>
       <c r="F120" s="11" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C121" s="46" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E121" s="41"/>
       <c r="F121" s="11" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C122" s="44" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D122" s="45"/>
       <c r="E122" s="41"/>
     </row>
     <row r="123" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D123" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E123" s="41"/>
     </row>
     <row r="124" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D124" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E124" s="45"/>
       <c r="F124" s="42"/>
     </row>
     <row r="125" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C125" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F125" s="43"/>
     </row>
     <row r="126" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D126" s="11" t="s">
-        <v>122</v>
+      <c r="D126" s="61" t="s">
+        <v>236</v>
       </c>
       <c r="F126" s="43"/>
     </row>
     <row r="127" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C127" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D128" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="129" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="130" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D130" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E129" s="61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="131" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E131" s="11" t="s">
-        <v>110</v>
+      <c r="D131" s="11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="133" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E133" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E134" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E135" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="136" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -7720,10 +7716,10 @@
     <row r="138" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="139" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C139" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -7731,58 +7727,68 @@
     <row r="142" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="143" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D143" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="144" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="145" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="146" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D147" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="144" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="145" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="146" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="147" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D147" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="148" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="149" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="150" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="151" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="152" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="153" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="154" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="11" t="s">
-        <v>148</v>
+    <row r="148" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="149" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="150" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="151" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="152" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C152" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C153" s="61" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="154" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C154" s="61" t="s">
+        <v>251</v>
       </c>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
-    </row>
-    <row r="155" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M154" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B155" s="46" t="s">
+        <v>157</v>
+      </c>
       <c r="C155" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="156" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="157" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="157" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C157" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="158" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B158" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="159" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="160" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="159" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="160" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="161" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="162" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="163" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -7805,33 +7811,33 @@
     </row>
     <row r="179" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B179" s="43" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="M179" s="4"/>
     </row>
     <row r="180" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B180" s="43"/>
-      <c r="C180" s="50"/>
+      <c r="C180" s="49"/>
     </row>
     <row r="181" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B181" s="43" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J181" s="43"/>
       <c r="M181" s="4"/>
     </row>
     <row r="182" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B182" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="C182" s="47" t="s">
-        <v>229</v>
+        <v>157</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>233</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -7839,55 +7845,49 @@
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
       <c r="I182" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="M182" s="4"/>
     </row>
-    <row r="183" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B183" s="63"/>
       <c r="C183" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="M183" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
     </row>
     <row r="184" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="K184" s="4"/>
-      <c r="L184" s="4"/>
+      <c r="C184" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="M184" s="4"/>
-      <c r="R184" s="4"/>
     </row>
     <row r="185" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B185" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C185" s="11" t="s">
-        <v>173</v>
-      </c>
       <c r="K185" s="4"/>
       <c r="L185" s="4"/>
       <c r="M185" s="4"/>
       <c r="R185" s="4"/>
     </row>
     <row r="186" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B186" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="C186" s="11" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="K186" s="4"/>
       <c r="L186" s="4"/>
       <c r="M186" s="4"/>
-      <c r="N186" s="4"/>
-      <c r="O186" s="4"/>
-      <c r="P186" s="4"/>
-      <c r="Q186" s="4"/>
-    </row>
-    <row r="187" spans="2:18" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B187" s="46" t="s">
-        <v>161</v>
-      </c>
+      <c r="R186" s="4"/>
+    </row>
+    <row r="187" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C187" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D187" s="66" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="K187" s="4"/>
       <c r="L187" s="4"/>
@@ -7896,32 +7896,38 @@
       <c r="O187" s="4"/>
       <c r="P187" s="4"/>
       <c r="Q187" s="4"/>
-      <c r="R187" s="4"/>
-    </row>
-    <row r="188" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D188" s="66" t="s">
-        <v>234</v>
+    </row>
+    <row r="188" spans="2:18" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B188" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D188" s="64" t="s">
+        <v>221</v>
       </c>
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
       <c r="M188" s="4"/>
+      <c r="N188" s="4"/>
+      <c r="O188" s="4"/>
+      <c r="P188" s="4"/>
+      <c r="Q188" s="4"/>
       <c r="R188" s="4"/>
     </row>
-    <row r="189" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B189" s="11" t="s">
-        <v>226</v>
+    <row r="189" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D189" s="64" t="s">
+        <v>222</v>
       </c>
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
       <c r="M189" s="4"/>
-      <c r="N189" s="4"/>
-      <c r="O189" s="4"/>
-      <c r="P189" s="4"/>
-      <c r="Q189" s="4"/>
+      <c r="R189" s="4"/>
     </row>
     <row r="190" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C190" s="11" t="s">
-        <v>179</v>
+      <c r="B190" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="K190" s="4"/>
       <c r="L190" s="4"/>
@@ -7930,42 +7936,38 @@
       <c r="O190" s="4"/>
       <c r="P190" s="4"/>
       <c r="Q190" s="4"/>
-      <c r="R190" s="4"/>
     </row>
     <row r="191" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B191" s="11" t="s">
-        <v>176</v>
+      <c r="C191" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="K191" s="4"/>
       <c r="L191" s="4"/>
       <c r="M191" s="4"/>
+      <c r="N191" s="4"/>
+      <c r="O191" s="4"/>
+      <c r="P191" s="4"/>
+      <c r="Q191" s="4"/>
       <c r="R191" s="4"/>
     </row>
-    <row r="192" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="D192" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G192" s="11" t="s">
-        <v>203</v>
+    <row r="192" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B192" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="K192" s="4"/>
       <c r="L192" s="4"/>
       <c r="M192" s="4"/>
-      <c r="N192" s="4"/>
-      <c r="O192" s="4"/>
-      <c r="P192" s="4"/>
-      <c r="Q192" s="4"/>
       <c r="R192" s="4"/>
     </row>
-    <row r="193" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B193" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>185</v>
+    <row r="193" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B193" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G193" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="K193" s="4"/>
       <c r="L193" s="4"/>
@@ -7977,6 +7979,12 @@
       <c r="R193" s="4"/>
     </row>
     <row r="194" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B194" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="K194" s="4"/>
       <c r="L194" s="4"/>
       <c r="M194" s="4"/>
@@ -7996,32 +8004,23 @@
       <c r="Q195" s="4"/>
       <c r="R195" s="4"/>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E196" s="11"/>
-      <c r="F196" s="11"/>
-      <c r="G196" s="11"/>
-      <c r="H196" s="11"/>
-      <c r="I196" s="11"/>
-      <c r="J196" s="11"/>
-      <c r="T196" s="11"/>
-      <c r="U196" s="11"/>
-      <c r="V196" s="11"/>
-      <c r="W196" s="11"/>
-      <c r="X196" s="11"/>
-      <c r="Y196" s="11"/>
+    <row r="196" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K196" s="4"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="4"/>
+      <c r="P196" s="4"/>
+      <c r="Q196" s="4"/>
+      <c r="R196" s="4"/>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
-      <c r="E197" s="11" t="s">
-        <v>145</v>
-      </c>
+      <c r="D197" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E197" s="11"/>
       <c r="F197" s="11"/>
       <c r="G197" s="11"/>
       <c r="H197" s="11"/>
@@ -8034,127 +8033,146 @@
       <c r="X197" s="11"/>
       <c r="Y197" s="11"/>
     </row>
-    <row r="198" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
       <c r="E198" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K198" s="4"/>
-      <c r="L198" s="4"/>
-      <c r="M198" s="4"/>
-      <c r="N198" s="4"/>
-      <c r="O198" s="4"/>
-      <c r="P198" s="4"/>
-      <c r="Q198" s="4"/>
-      <c r="R198" s="4"/>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A199" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
+        <v>142</v>
+      </c>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
+      <c r="H198" s="11"/>
+      <c r="I198" s="11"/>
+      <c r="J198" s="11"/>
+      <c r="T198" s="11"/>
+      <c r="U198" s="11"/>
+      <c r="V198" s="11"/>
+      <c r="W198" s="11"/>
+      <c r="X198" s="11"/>
+      <c r="Y198" s="11"/>
+    </row>
+    <row r="199" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E199" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F199" s="11"/>
-      <c r="G199" s="11"/>
-      <c r="H199" s="11"/>
-      <c r="I199" s="11"/>
-      <c r="J199" s="11"/>
-      <c r="T199" s="11"/>
-      <c r="U199" s="11"/>
-      <c r="V199" s="11"/>
-      <c r="W199" s="11"/>
-      <c r="X199" s="11"/>
-      <c r="Y199" s="11"/>
+        <v>143</v>
+      </c>
+      <c r="K199" s="4"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="4"/>
+      <c r="O199" s="4"/>
+      <c r="P199" s="4"/>
+      <c r="Q199" s="4"/>
+      <c r="R199" s="4"/>
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A200" s="11" t="s">
+        <v>135</v>
+      </c>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
-      <c r="D200" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E200" s="11"/>
+      <c r="E200" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="F200" s="11"/>
       <c r="G200" s="11"/>
       <c r="H200" s="11"/>
       <c r="I200" s="11"/>
       <c r="J200" s="11"/>
-    </row>
-    <row r="201" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E201" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I201" s="4"/>
-      <c r="J201" s="4"/>
-      <c r="K201" s="4"/>
-      <c r="L201" s="4"/>
-      <c r="M201" s="4"/>
-      <c r="N201" s="4"/>
-      <c r="O201" s="4"/>
-      <c r="P201" s="4"/>
-      <c r="Q201" s="4"/>
-      <c r="R201" s="4"/>
-      <c r="T201" s="4"/>
-      <c r="U201" s="4"/>
-      <c r="V201" s="4"/>
-      <c r="W201" s="4"/>
-      <c r="X201" s="4"/>
-      <c r="Y201" s="4"/>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B202" s="11"/>
-      <c r="C202" s="11"/>
-      <c r="E202" s="11"/>
-      <c r="F202" s="11"/>
-      <c r="G202" s="11"/>
-      <c r="H202" s="11"/>
+      <c r="T200" s="11"/>
+      <c r="U200" s="11"/>
+      <c r="V200" s="11"/>
+      <c r="W200" s="11"/>
+      <c r="X200" s="11"/>
+      <c r="Y200" s="11"/>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="11"/>
+      <c r="I201" s="11"/>
+      <c r="J201" s="11"/>
+    </row>
+    <row r="202" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E202" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I202" s="4"/>
+      <c r="J202" s="4"/>
+      <c r="K202" s="4"/>
+      <c r="L202" s="4"/>
+      <c r="M202" s="4"/>
+      <c r="N202" s="4"/>
+      <c r="O202" s="4"/>
+      <c r="P202" s="4"/>
+      <c r="Q202" s="4"/>
+      <c r="R202" s="4"/>
+      <c r="T202" s="4"/>
+      <c r="U202" s="4"/>
+      <c r="V202" s="4"/>
+      <c r="W202" s="4"/>
+      <c r="X202" s="4"/>
+      <c r="Y202" s="4"/>
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="11"/>
+      <c r="H203" s="11"/>
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B204" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C204" s="39" t="s">
-        <v>133</v>
-      </c>
+      <c r="B204" s="11"/>
+      <c r="C204" s="11"/>
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B205" s="11"/>
-      <c r="C205" s="11"/>
+      <c r="B205" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C205" s="39" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B206" s="11"/>
       <c r="C206" s="11"/>
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B207" s="11"/>
       <c r="C207" s="11"/>
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B208" s="11"/>
+      <c r="C208" s="11"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B209" s="11"/>
-      <c r="C209" s="11"/>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C211" s="11"/>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B210" s="11"/>
+      <c r="C210" s="11"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B212" s="11"/>
       <c r="C212" s="11"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B213" s="11"/>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B215" s="11"/>
+      <c r="C213" s="11"/>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B214" s="11"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B216" s="2"/>
+      <c r="B216" s="11"/>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B217" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8167,7 +8185,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -8198,7 +8216,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
@@ -8208,74 +8226,74 @@
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>60</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
       <c r="F2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="91" t="s">
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="33" t="s">
+      <c r="Q2" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="U2" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="P2" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="S2" s="36" t="s">
+    </row>
+    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="48">
+        <v>1</v>
+      </c>
+      <c r="F3" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="U2" s="36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="85" t="s">
+      <c r="G3" s="96"/>
+      <c r="H3" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="49">
-        <v>1</v>
-      </c>
-      <c r="F3" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="87"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
@@ -8285,28 +8303,28 @@
       <c r="U3" s="37"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
+      <c r="A4" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="83" t="s">
-        <v>222</v>
-      </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="84"/>
+      <c r="F4" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="97"/>
+      <c r="H4" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="92"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
@@ -8317,19 +8335,19 @@
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="29"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="84"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
@@ -8340,19 +8358,19 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="29"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="30"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="84"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
       <c r="O6" s="37"/>
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
@@ -8363,19 +8381,19 @@
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="29"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="84"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="92"/>
       <c r="O7" s="37"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
@@ -8386,19 +8404,19 @@
     </row>
     <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="29"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="84"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="92"/>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
@@ -8409,19 +8427,19 @@
     </row>
     <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="29"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="84"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="92"/>
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
@@ -8432,19 +8450,19 @@
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="29"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="84"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="92"/>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
@@ -8455,19 +8473,19 @@
     </row>
     <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="29"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="84"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="92"/>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -8478,19 +8496,19 @@
     </row>
     <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="29"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="84"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="92"/>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -8501,19 +8519,19 @@
     </row>
     <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="29"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="84"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="92"/>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
@@ -8524,19 +8542,19 @@
     </row>
     <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="29"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="84"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="92"/>
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
@@ -8547,19 +8565,19 @@
     </row>
     <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="29"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="84"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="92"/>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
@@ -8570,19 +8588,19 @@
     </row>
     <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="29"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="84"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="92"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
@@ -8593,19 +8611,19 @@
     </row>
     <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="29"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="84"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="92"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
@@ -8616,19 +8634,19 @@
     </row>
     <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="29"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="84"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="92"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
@@ -8639,19 +8657,19 @@
     </row>
     <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="29"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="84"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="92"/>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
@@ -8777,10 +8795,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -9985,7 +10003,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L8" s="1">
         <v>150</v>
@@ -10168,7 +10186,7 @@
   <dimension ref="A2:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10180,19 +10198,19 @@
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>199</v>
+        <v>177</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>192</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
+        <v>185</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
       <c r="L2" s="37"/>
@@ -10209,14 +10227,14 @@
       <c r="W2" s="37"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
@@ -10234,18 +10252,20 @@
       <c r="W3" s="37"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
+      <c r="A4" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
@@ -10263,18 +10283,20 @@
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="51" t="s">
-        <v>197</v>
+      <c r="A5" s="50" t="s">
+        <v>190</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
+        <v>191</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
@@ -10293,17 +10315,19 @@
     </row>
     <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
+        <v>193</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
@@ -10321,18 +10345,20 @@
       <c r="W6" s="37"/>
     </row>
     <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="51" t="s">
-        <v>190</v>
+      <c r="A7" s="50" t="s">
+        <v>184</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
+        <v>181</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
@@ -10350,18 +10376,20 @@
       <c r="W7" s="37"/>
     </row>
     <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="51" t="s">
-        <v>184</v>
+      <c r="A8" s="50" t="s">
+        <v>178</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
+        <v>182</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="37"/>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
@@ -10378,19 +10406,21 @@
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
     </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
+    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
@@ -10407,19 +10437,21 @@
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
@@ -10436,19 +10468,21 @@
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
     </row>
-    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
+    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
@@ -10466,18 +10500,18 @@
       <c r="W11" s="37"/>
     </row>
     <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53"/>
+      <c r="A12" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
       <c r="I12" s="37"/>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
@@ -10495,14 +10529,18 @@
       <c r="W12" s="37"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
+      <c r="A13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
@@ -10521,13 +10559,13 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
       <c r="I14" s="37"/>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
@@ -10546,13 +10584,13 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="37"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
       <c r="I15" s="37"/>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
@@ -10571,13 +10609,13 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" s="37"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
       <c r="I16" s="37"/>
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
@@ -10596,13 +10634,13 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17" s="37"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
       <c r="I17" s="37"/>
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
@@ -10621,13 +10659,13 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A18" s="37"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
@@ -10646,13 +10684,13 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A19" s="37"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
       <c r="I19" s="37"/>
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
@@ -10671,13 +10709,13 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20" s="37"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="37"/>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
@@ -11063,59 +11101,169 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E13" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="74" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I34" t="s">
+        <v>270</v>
+      </c>
+      <c r="K34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C61" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B62" s="71" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>267</v>
+      </c>
+      <c r="C63" s="73" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B65" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/gd/道具系统/活力值系统.xlsx
+++ b/gd/道具系统/活力值系统.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="270">
   <si>
     <t>设一个普通对局要</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -982,30 +982,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>需要添加每个活力值道具类型对应的现有数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能添加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UI界面,快速使用界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>显示在每个ICON的左下部位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>表现添加</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>快速购买和功能显示不足需要添加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>三个活力值档位购买间隙太窄,需要调节上下间隙</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1034,10 +1018,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>提示购买二级界面,上面的关闭按钮功能没有实现,   解决:这个功能界面没有关闭按钮.请增加关闭功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>背包使用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1067,6 +1047,10 @@
   </si>
   <si>
     <t xml:space="preserve"> 获得 {0} 点活力值{活力值ICON}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示购买二级界面,上面的关闭按钮功能没有实现,   解决:这个功能界面没有关闭按钮.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1077,7 +1061,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1220,6 +1204,15 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1533,7 +1526,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1768,16 +1761,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1786,23 +1782,23 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5740,118 +5736,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>638095</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9438</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="4286250"/>
-          <a:ext cx="638095" cy="695238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1819275" y="4743450"/>
-          <a:ext cx="200025" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>5</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>56478</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>47191</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5862,7 +5755,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6137,7 +6030,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7767,7 +7660,7 @@
         <v>157</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I155" s="11" t="s">
         <v>184</v>
@@ -8238,15 +8131,15 @@
         <v>60</v>
       </c>
       <c r="G2" s="35"/>
-      <c r="H2" s="99" t="s">
+      <c r="H2" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="101"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
       <c r="O2" s="33" t="s">
         <v>136</v>
       </c>
@@ -8273,27 +8166,27 @@
       <c r="A3" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="48">
         <v>1</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="94" t="s">
+      <c r="G3" s="98"/>
+      <c r="H3" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
@@ -8306,25 +8199,25 @@
       <c r="A4" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="101" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="99"/>
+      <c r="H4" s="93" t="s">
         <v>212</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="92"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
@@ -8335,19 +8228,19 @@
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="29"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="92"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="94"/>
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
@@ -8358,19 +8251,19 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="29"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
       <c r="E6" s="30"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="94"/>
       <c r="O6" s="37"/>
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
@@ -8381,19 +8274,19 @@
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="29"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="94"/>
       <c r="O7" s="37"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
@@ -8404,19 +8297,19 @@
     </row>
     <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="29"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="92"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="94"/>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
@@ -8427,19 +8320,19 @@
     </row>
     <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="29"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="92"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="94"/>
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
@@ -8450,19 +8343,19 @@
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="29"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="92"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="94"/>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
@@ -8473,19 +8366,19 @@
     </row>
     <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="29"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="92"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="94"/>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -8496,19 +8389,19 @@
     </row>
     <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="29"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="92"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="94"/>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -8519,19 +8412,19 @@
     </row>
     <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="29"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="92"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="94"/>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
@@ -8542,19 +8435,19 @@
     </row>
     <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="29"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="92"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="94"/>
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
@@ -8565,19 +8458,19 @@
     </row>
     <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="29"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="92"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="94"/>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
@@ -8588,19 +8481,19 @@
     </row>
     <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="29"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="92"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="94"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
@@ -8611,19 +8504,19 @@
     </row>
     <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="29"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="92"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="94"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
@@ -8634,19 +8527,19 @@
     </row>
     <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="29"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="92"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="94"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
@@ -8657,19 +8550,19 @@
     </row>
     <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="29"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="92"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="94"/>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
@@ -8719,25 +8612,23 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="H19:N19"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
@@ -8754,23 +8645,25 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="H4:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10530,10 +10423,10 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C13" s="57"/>
       <c r="D13" s="51"/>
@@ -11160,10 +11053,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K65"/>
+  <dimension ref="B2:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11173,93 +11066,79 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" t="s">
+        <v>264</v>
+      </c>
+      <c r="I24" t="s">
+        <v>265</v>
+      </c>
+      <c r="K24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="102" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B25" s="74" t="s">
-        <v>253</v>
-      </c>
-      <c r="C25" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>256</v>
-      </c>
-      <c r="C34" s="74" t="s">
-        <v>271</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C51" t="s">
         <v>269</v>
       </c>
-      <c r="I34" t="s">
-        <v>270</v>
-      </c>
-      <c r="K34" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B52" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="C36" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C53" s="73" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B55" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="C61" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B62" s="71" t="s">
-        <v>262</v>
-      </c>
-      <c r="C62" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
-        <v>267</v>
-      </c>
-      <c r="C63" s="73" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B65" s="72" t="s">
-        <v>266</v>
-      </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/gd/道具系统/活力值系统.xlsx
+++ b/gd/道具系统/活力值系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="-90" windowWidth="27765" windowHeight="12330" activeTab="7"/>
+    <workbookView xWindow="585" yWindow="-90" windowWidth="27765" windowHeight="12330" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="271">
   <si>
     <t>设一个普通对局要</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1046,11 +1046,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>提示购买二级界面,上面的关闭按钮功能没有实现,   解决:这个功能界面没有关闭按钮.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> 获得 {0} 点活力值{活力值ICON}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>提示购买二级界面,上面的关闭按钮功能没有实现,   解决:这个功能界面没有关闭按钮.</t>
+    <t>get {0} energy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1716,6 +1720,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1761,6 +1768,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1769,36 +1803,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6030,7 +6034,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6239,17 +6243,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81" t="s">
+      <c r="C11" s="81"/>
+      <c r="D11" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="83"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -6264,11 +6268,11 @@
         <v>33</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -6285,11 +6289,11 @@
       <c r="C13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="85"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -6304,11 +6308,11 @@
         <v>35</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="88"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
@@ -6323,11 +6327,11 @@
         <v>36</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
@@ -6342,11 +6346,11 @@
         <v>38</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
@@ -6361,11 +6365,11 @@
         <v>39</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
@@ -6380,11 +6384,11 @@
         <v>40</v>
       </c>
       <c r="C18" s="25"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="79"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
@@ -6688,10 +6692,10 @@
         <v>140</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="89"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="13" t="s">
         <v>20</v>
       </c>
@@ -6701,8 +6705,8 @@
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="11" t="s">
         <v>81</v>
       </c>
@@ -8131,15 +8135,15 @@
         <v>60</v>
       </c>
       <c r="G2" s="35"/>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
       <c r="O2" s="33" t="s">
         <v>136</v>
       </c>
@@ -8166,7 +8170,7 @@
       <c r="A3" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="94" t="s">
         <v>100</v>
       </c>
       <c r="C3" s="95"/>
@@ -8174,10 +8178,10 @@
       <c r="E3" s="48">
         <v>1</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="98"/>
+      <c r="G3" s="97"/>
       <c r="H3" s="95" t="s">
         <v>101</v>
       </c>
@@ -8199,25 +8203,25 @@
       <c r="A4" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="99"/>
-      <c r="H4" s="93" t="s">
+      <c r="G4" s="98"/>
+      <c r="H4" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="94"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="93"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
@@ -8228,19 +8232,19 @@
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="29"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="94"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="93"/>
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
@@ -8251,19 +8255,19 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="29"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="30"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="94"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="93"/>
       <c r="O6" s="37"/>
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
@@ -8274,19 +8278,19 @@
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="29"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="93"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="94"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="93"/>
       <c r="O7" s="37"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
@@ -8297,19 +8301,19 @@
     </row>
     <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="29"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="94"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="93"/>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
@@ -8320,19 +8324,19 @@
     </row>
     <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="29"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="94"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="93"/>
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
@@ -8343,19 +8347,19 @@
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="29"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="94"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="93"/>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
@@ -8366,19 +8370,19 @@
     </row>
     <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="29"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="94"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="93"/>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -8389,19 +8393,19 @@
     </row>
     <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="29"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="94"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="93"/>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -8412,19 +8416,19 @@
     </row>
     <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="29"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="94"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="93"/>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
@@ -8435,19 +8439,19 @@
     </row>
     <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="29"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="94"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="93"/>
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
@@ -8458,19 +8462,19 @@
     </row>
     <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="29"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="94"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="94"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="93"/>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
@@ -8481,19 +8485,19 @@
     </row>
     <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="29"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="94"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="94"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="93"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
@@ -8504,19 +8508,19 @@
     </row>
     <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="29"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="94"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="93"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
@@ -8527,19 +8531,19 @@
     </row>
     <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="29"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="94"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="93"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
@@ -8550,19 +8554,19 @@
     </row>
     <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="29"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="94"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="93"/>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
@@ -8612,23 +8616,25 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="H14:N14"/>
     <mergeCell ref="H19:N19"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
@@ -8645,25 +8651,23 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10078,8 +10082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10426,9 +10430,11 @@
         <v>267</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>268</v>
-      </c>
-      <c r="C13" s="57"/>
+        <v>269</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>270</v>
+      </c>
       <c r="D13" s="51"/>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
@@ -11055,7 +11061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -11090,7 +11096,7 @@
       <c r="B26" t="s">
         <v>255</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="75" t="s">
         <v>254</v>
       </c>
       <c r="D26" s="72"/>
@@ -11108,7 +11114,7 @@
         <v>257</v>
       </c>
       <c r="C51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.15">

--- a/gd/道具系统/活力值系统.xlsx
+++ b/gd/道具系统/活力值系统.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="272">
   <si>
     <t>设一个普通对局要</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -938,10 +938,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Spend   to buy and use one?</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>Don't show again for current session.</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -1056,6 +1052,12 @@
   <si>
     <t>get {0} energy</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase and use one XXX?</t>
+  </si>
+  <si>
+    <t>Energy has already reached the maximum limit.</t>
   </si>
 </sst>
 </file>
@@ -1768,16 +1770,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1786,23 +1791,20 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6034,7 +6036,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6752,7 +6754,7 @@
     <row r="17" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>227</v>
@@ -7646,12 +7648,12 @@
     </row>
     <row r="153" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C153" s="61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="154" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C154" s="61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
@@ -7664,7 +7666,7 @@
         <v>157</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I155" s="11" t="s">
         <v>184</v>
@@ -8135,15 +8137,15 @@
         <v>60</v>
       </c>
       <c r="G2" s="35"/>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="102"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="93"/>
       <c r="O2" s="33" t="s">
         <v>136</v>
       </c>
@@ -8170,27 +8172,27 @@
       <c r="A3" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="48">
         <v>1</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="97"/>
-      <c r="H3" s="95" t="s">
+      <c r="G3" s="99"/>
+      <c r="H3" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
@@ -8201,27 +8203,27 @@
     </row>
     <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="102" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="92" t="s">
+      <c r="G4" s="100"/>
+      <c r="H4" s="94" t="s">
         <v>212</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="93"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="95"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
@@ -8232,19 +8234,19 @@
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="29"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="93"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="95"/>
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
@@ -8255,19 +8257,19 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="29"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="30"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="93"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="95"/>
       <c r="O6" s="37"/>
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
@@ -8278,19 +8280,19 @@
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="29"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="93"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="95"/>
       <c r="O7" s="37"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
@@ -8301,19 +8303,19 @@
     </row>
     <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="29"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="93"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="95"/>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
@@ -8324,19 +8326,19 @@
     </row>
     <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="29"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="93"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="95"/>
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
@@ -8347,19 +8349,19 @@
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="29"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="93"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="95"/>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
@@ -8370,19 +8372,19 @@
     </row>
     <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="29"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="93"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="95"/>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -8393,19 +8395,19 @@
     </row>
     <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="29"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="93"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="95"/>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -8416,19 +8418,19 @@
     </row>
     <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="29"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="93"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="93"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="95"/>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
@@ -8439,19 +8441,19 @@
     </row>
     <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="29"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="93"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="95"/>
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
@@ -8462,19 +8464,19 @@
     </row>
     <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="29"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="93"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="95"/>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
@@ -8485,19 +8487,19 @@
     </row>
     <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="29"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="93"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="95"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
@@ -8508,19 +8510,19 @@
     </row>
     <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="29"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="93"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="95"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
@@ -8531,19 +8533,19 @@
     </row>
     <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="29"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="93"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="95"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
@@ -8554,19 +8556,19 @@
     </row>
     <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="29"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="93"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="95"/>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
@@ -8616,25 +8618,23 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="H19:N19"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
@@ -8651,23 +8651,25 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="H4:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10083,7 +10085,7 @@
   <dimension ref="A2:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10249,7 +10251,7 @@
         <v>181</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
@@ -10280,7 +10282,7 @@
         <v>182</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
@@ -10305,13 +10307,13 @@
     </row>
     <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B9" s="58" t="s">
         <v>183</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
@@ -10342,7 +10344,7 @@
         <v>173</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
@@ -10373,7 +10375,7 @@
         <v>235</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
@@ -10398,12 +10400,14 @@
     </row>
     <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B12" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="57" t="s">
+        <v>271</v>
+      </c>
       <c r="D12" s="51"/>
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
@@ -10427,13 +10431,13 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B13" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="57" t="s">
         <v>269</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>270</v>
       </c>
       <c r="D13" s="51"/>
       <c r="E13" s="51"/>
@@ -11072,32 +11076,32 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C24" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" t="s">
+        <v>263</v>
+      </c>
+      <c r="I24" t="s">
+        <v>264</v>
+      </c>
+      <c r="K24" t="s">
         <v>266</v>
-      </c>
-      <c r="D24" t="s">
-        <v>264</v>
-      </c>
-      <c r="I24" t="s">
-        <v>265</v>
-      </c>
-      <c r="K24" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D26" s="72"/>
       <c r="E26" s="72"/>
@@ -11106,38 +11110,38 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B52" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" s="71" t="s">
         <v>258</v>
-      </c>
-      <c r="C52" s="71" t="s">
-        <v>259</v>
       </c>
       <c r="D52" s="71"/>
       <c r="E52" s="71"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
+        <v>261</v>
+      </c>
+      <c r="C53" s="73" t="s">
         <v>262</v>
-      </c>
-      <c r="C53" s="73" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B55" s="72" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C55" s="72"/>
       <c r="D55" s="72"/>

--- a/gd/道具系统/活力值系统.xlsx
+++ b/gd/道具系统/活力值系统.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\道具系统\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="585" yWindow="-90" windowWidth="27765" windowHeight="12330" activeTab="5"/>
+    <workbookView xWindow="585" yWindow="-90" windowWidth="27765" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -16,7 +21,10 @@
     <sheet name="工作时间" sheetId="8" r:id="rId7"/>
     <sheet name="反馈" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="此规则不适用于邮箱">基本内容!$D$89:$E$89</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="275">
   <si>
     <t>设一个普通对局要</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1058,6 +1066,18 @@
   </si>
   <si>
     <t>Energy has already reached the maximum limit.</t>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值上限规则不适用于邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此规则不适用于邮箱，邮箱处理方式见《邮箱系统设计》文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1067,7 +1087,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1220,8 +1240,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1285,6 +1322,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,7 +1559,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1531,8 +1574,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1725,6 +1771,11 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1807,13 +1858,14 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="常规 2 2 10" xfId="4"/>
     <cellStyle name="常规 2 2 2" xfId="3"/>
     <cellStyle name="常规 4" xfId="5"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3517,13 +3569,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3993,13 +4045,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4049,13 +4101,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4105,13 +4157,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4170,13 +4222,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4222,13 +4274,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4274,13 +4326,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4326,13 +4378,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4378,13 +4430,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4430,13 +4482,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4482,13 +4534,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>742951</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4536,13 +4588,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4593,13 +4645,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4655,13 +4707,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>771526</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4709,13 +4761,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4766,13 +4818,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>714376</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4820,13 +4872,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4889,13 +4941,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4953,13 +5005,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5022,13 +5074,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5078,13 +5130,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5156,13 +5208,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5228,13 +5280,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>642744</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>208421</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5280,13 +5332,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5330,13 +5382,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5380,13 +5432,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5468,13 +5520,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5533,13 +5585,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5598,13 +5650,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5663,13 +5715,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>170721</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>209047</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6036,7 +6088,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6044,18 +6096,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="16.5">
       <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
@@ -6076,7 +6128,7 @@
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
     </row>
-    <row r="2" spans="1:15" ht="14.45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="16.5">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -6093,7 +6145,7 @@
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
     </row>
-    <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="17.25">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -6114,7 +6166,7 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:15" ht="14.45" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="16.5">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
@@ -6131,7 +6183,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="16.5">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
@@ -6152,7 +6204,7 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="16.5">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -6169,7 +6221,7 @@
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:15" ht="99" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="99">
       <c r="A7" s="15" t="s">
         <v>30</v>
       </c>
@@ -6190,7 +6242,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="16.5">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
@@ -6207,7 +6259,7 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="16.5">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -6224,7 +6276,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="17.25" thickBot="1">
       <c r="A10" s="15" t="s">
         <v>31</v>
       </c>
@@ -6243,19 +6295,19 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="17.25" thickTop="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="82" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="83"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="86"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -6264,17 +6316,17 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="16.5">
       <c r="A12" s="15"/>
       <c r="B12" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="77"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="80"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -6283,7 +6335,7 @@
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="16.5">
       <c r="A13" s="15"/>
       <c r="B13" s="21" t="s">
         <v>34</v>
@@ -6291,11 +6343,11 @@
       <c r="C13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="89"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -6304,17 +6356,17 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="16.5">
       <c r="A14" s="15"/>
       <c r="B14" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="89"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
@@ -6323,17 +6375,17 @@
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="16.5">
       <c r="A15" s="15"/>
       <c r="B15" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="77"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="80"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
@@ -6342,17 +6394,17 @@
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="16.5">
       <c r="A16" s="15"/>
       <c r="B16" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
@@ -6361,17 +6413,17 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="16.5">
       <c r="A17" s="15"/>
       <c r="B17" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="80"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
@@ -6380,17 +6432,17 @@
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" ht="17.25" thickBot="1">
       <c r="A18" s="15"/>
       <c r="B18" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="25"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="79"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="82"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
@@ -6399,7 +6451,7 @@
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" ht="17.25" thickTop="1">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -6416,7 +6468,7 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="16.5">
       <c r="A20" s="15" t="s">
         <v>41</v>
       </c>
@@ -6447,7 +6499,7 @@
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="1:15" ht="14.45" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" ht="16.5">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
@@ -6464,7 +6516,7 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="16.5">
       <c r="A22" s="15"/>
       <c r="B22" s="16" t="s">
         <v>48</v>
@@ -6491,7 +6543,7 @@
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="16.5">
       <c r="A23" s="15"/>
       <c r="B23" s="16" t="s">
         <v>67</v>
@@ -6516,7 +6568,7 @@
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="16.5">
       <c r="A24" s="15"/>
       <c r="B24" s="16" t="s">
         <v>228</v>
@@ -6541,7 +6593,7 @@
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="16.5">
       <c r="A25" s="16"/>
       <c r="B25" s="16" t="s">
         <v>229</v>
@@ -6566,32 +6618,55 @@
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>55</v>
-      </c>
+    <row r="26" spans="1:15" ht="16.5">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="26">
+        <v>42347</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="G26" s="16" t="s">
+        <v>272</v>
+      </c>
       <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
+      <c r="I26" s="78" t="s">
+        <v>273</v>
+      </c>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5">
+      <c r="A27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6606,19 +6681,22 @@
     <mergeCell ref="D15:H15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I26" location="此规则不适用于邮箱" display="活力值上限规则不适用于邮箱"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE217"/>
+  <dimension ref="A1:AE218"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M154" sqref="M154"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="30.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="4" customWidth="1"/>
@@ -6629,29 +6707,29 @@
     <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="B1" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="11" customFormat="1">
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
         <v>75</v>
@@ -6666,38 +6744,38 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="B7" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="B8" s="2"/>
       <c r="C8" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="11" customFormat="1">
       <c r="B9" s="2"/>
       <c r="C9" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="11" customFormat="1" ht="17.25" thickBot="1">
       <c r="A10" s="11" t="s">
         <v>140</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="90"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="13" t="s">
         <v>20</v>
       </c>
@@ -6705,10 +6783,10 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="11" customFormat="1">
       <c r="B11" s="2"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="11" t="s">
         <v>81</v>
       </c>
@@ -6719,13 +6797,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="11" customFormat="1">
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="11" customFormat="1">
       <c r="B13" s="2"/>
       <c r="C13" s="11" t="s">
         <v>166</v>
@@ -6737,21 +6815,21 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" s="11" customFormat="1">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" s="11" customFormat="1">
       <c r="B15" s="2"/>
       <c r="C15" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" s="11" customFormat="1">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" s="11" customFormat="1">
       <c r="B17" s="2"/>
       <c r="C17" s="46" t="s">
         <v>248</v>
@@ -6763,33 +6841,33 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" s="11" customFormat="1">
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" s="11" customFormat="1">
       <c r="B19" s="2"/>
       <c r="C19" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" s="11" customFormat="1">
       <c r="B20" s="2"/>
       <c r="D20" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" s="11" customFormat="1">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" s="11" customFormat="1">
       <c r="C22" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" s="11" customFormat="1">
       <c r="B23" s="2" t="s">
         <v>162</v>
       </c>
@@ -6797,82 +6875,82 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" s="11" customFormat="1">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" s="11" customFormat="1">
       <c r="B25" s="2"/>
       <c r="C25" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" s="11" customFormat="1">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" s="11" customFormat="1">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" s="11" customFormat="1">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" s="11" customFormat="1">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" s="11" customFormat="1">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" s="11" customFormat="1">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" s="11" customFormat="1">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" s="11" customFormat="1">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" s="11" customFormat="1">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:17" s="11" customFormat="1">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:17" s="11" customFormat="1">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:17" s="11" customFormat="1">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:17" s="11" customFormat="1">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:17" s="11" customFormat="1">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:17" s="11" customFormat="1">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:17" s="11" customFormat="1">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:17" s="11" customFormat="1">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:17" s="11" customFormat="1">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:17" s="11" customFormat="1">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:17" s="11" customFormat="1">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:17" s="11" customFormat="1">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:17" s="11" customFormat="1">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:17">
       <c r="B48" s="2"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -6890,7 +6968,7 @@
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:17">
       <c r="B49" s="2"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -6908,7 +6986,7 @@
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:17">
       <c r="B50" s="2"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -6926,7 +7004,7 @@
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:17">
       <c r="B51" s="2"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -6944,7 +7022,7 @@
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:17">
       <c r="B52" s="2"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -6962,7 +7040,7 @@
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:17">
       <c r="B53" s="2"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -6980,7 +7058,7 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:17">
       <c r="B54" s="2"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -6998,7 +7076,7 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:17">
       <c r="B55" s="2"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -7016,7 +7094,7 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:17">
       <c r="B56" s="2"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -7034,58 +7112,58 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:17">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:17">
       <c r="B58" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:17">
       <c r="B59" s="2"/>
       <c r="C59" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:17">
       <c r="B60" s="2"/>
       <c r="C60" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:17">
       <c r="B61" s="2"/>
       <c r="C61" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:17">
       <c r="B62" s="2"/>
       <c r="C62" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:17" s="11" customFormat="1">
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:17" s="11" customFormat="1">
       <c r="B64" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:17">
       <c r="B65" s="2"/>
       <c r="C65" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:17">
       <c r="B66" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:17" s="11" customFormat="1">
       <c r="B67" s="2"/>
       <c r="C67" s="4">
         <v>150</v>
@@ -7107,7 +7185,7 @@
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
     </row>
-    <row r="68" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:17" s="11" customFormat="1">
       <c r="B68" s="2"/>
       <c r="C68" s="8" t="s">
         <v>126</v>
@@ -7127,15 +7205,15 @@
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:17">
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:17">
       <c r="B70" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:17">
       <c r="B71" s="2"/>
       <c r="C71" s="4" t="s">
         <v>105</v>
@@ -7147,7 +7225,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:17">
       <c r="B72" s="2"/>
       <c r="C72" s="4" t="s">
         <v>106</v>
@@ -7159,7 +7237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:17">
       <c r="B73" s="2"/>
       <c r="C73" s="4" t="s">
         <v>107</v>
@@ -7168,7 +7246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:17" s="11" customFormat="1">
       <c r="B74" s="2"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -7186,7 +7264,7 @@
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:17">
       <c r="B75" s="2" t="s">
         <v>92</v>
       </c>
@@ -7208,7 +7286,7 @@
       <c r="P75" s="11"/>
       <c r="Q75" s="11"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:17">
       <c r="B76" s="2"/>
       <c r="C76" s="4" t="s">
         <v>93</v>
@@ -7218,7 +7296,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:17">
       <c r="D77" s="4" t="s">
         <v>66</v>
       </c>
@@ -7226,7 +7304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:17">
       <c r="C78" s="4" t="s">
         <v>94</v>
       </c>
@@ -7237,7 +7315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:17">
       <c r="C79" s="4" t="s">
         <v>95</v>
       </c>
@@ -7248,7 +7326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:17">
       <c r="C80" s="4" t="s">
         <v>96</v>
       </c>
@@ -7259,22 +7337,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:31">
       <c r="C82" s="62" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="83" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:31">
       <c r="B83" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:31">
       <c r="C84" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="85" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:31">
       <c r="C85" s="4" t="s">
         <v>24</v>
       </c>
@@ -7282,7 +7360,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:31">
       <c r="D86" s="4" t="s">
         <v>119</v>
       </c>
@@ -7290,7 +7368,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:31" s="11" customFormat="1">
       <c r="C87" s="46" t="s">
         <v>157</v>
       </c>
@@ -7301,510 +7379,499 @@
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:31" s="11" customFormat="1">
       <c r="B88" s="62"/>
       <c r="C88" s="63"/>
       <c r="D88" s="62" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="90" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B90" s="2" t="s">
+    <row r="89" spans="2:31">
+      <c r="D89" s="76" t="s">
+        <v>274</v>
+      </c>
+      <c r="E89" s="76"/>
+    </row>
+    <row r="90" spans="2:31" s="11" customFormat="1"/>
+    <row r="91" spans="2:31">
+      <c r="B91" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4" t="s">
+    <row r="92" spans="2:31" s="11" customFormat="1">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-    </row>
-    <row r="92" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="11" t="s">
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+    </row>
+    <row r="93" spans="2:31" s="11" customFormat="1"/>
+    <row r="94" spans="2:31" s="11" customFormat="1">
+      <c r="B94" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="H93" s="11" t="s">
+      <c r="H94" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="U93" s="40"/>
-      <c r="V93" s="41"/>
-      <c r="AD93" s="40"/>
-    </row>
-    <row r="94" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="U94" s="40"/>
       <c r="V94" s="41"/>
       <c r="AD94" s="40"/>
-      <c r="AE94" s="41"/>
-    </row>
-    <row r="95" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="2:31" s="11" customFormat="1">
       <c r="U95" s="40"/>
       <c r="V95" s="41"/>
       <c r="AD95" s="40"/>
       <c r="AE95" s="41"/>
     </row>
-    <row r="96" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:31" s="11" customFormat="1">
       <c r="U96" s="40"/>
       <c r="V96" s="41"/>
       <c r="AD96" s="40"/>
       <c r="AE96" s="41"/>
     </row>
-    <row r="97" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:31" s="11" customFormat="1">
       <c r="U97" s="40"/>
       <c r="V97" s="41"/>
       <c r="AD97" s="40"/>
       <c r="AE97" s="41"/>
     </row>
-    <row r="98" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:31" s="11" customFormat="1">
       <c r="U98" s="40"/>
-      <c r="V98" s="43"/>
+      <c r="V98" s="41"/>
       <c r="AD98" s="40"/>
-      <c r="AE98" s="43"/>
-    </row>
-    <row r="99" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE98" s="41"/>
+    </row>
+    <row r="99" spans="2:31" s="11" customFormat="1">
       <c r="U99" s="40"/>
-      <c r="V99" s="41"/>
+      <c r="V99" s="43"/>
       <c r="AD99" s="40"/>
-      <c r="AE99" s="41"/>
-    </row>
-    <row r="100" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
+      <c r="AE99" s="43"/>
+    </row>
+    <row r="100" spans="2:31" s="11" customFormat="1">
       <c r="U100" s="40"/>
-      <c r="V100" s="42"/>
+      <c r="V100" s="41"/>
       <c r="AD100" s="40"/>
-      <c r="AE100" s="42"/>
-    </row>
-    <row r="101" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="AE100" s="41"/>
+    </row>
+    <row r="101" spans="2:31">
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
       <c r="U101" s="40"/>
       <c r="V101" s="42"/>
       <c r="AD101" s="40"/>
       <c r="AE101" s="42"/>
     </row>
-    <row r="102" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="4"/>
-      <c r="H102" s="11" t="s">
+    <row r="102" spans="2:31" s="11" customFormat="1">
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="U102" s="40"/>
+      <c r="V102" s="42"/>
+      <c r="AD102" s="40"/>
+      <c r="AE102" s="42"/>
+    </row>
+    <row r="103" spans="2:31" s="11" customFormat="1">
+      <c r="B103" s="4"/>
+      <c r="H103" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="U102" s="44"/>
-      <c r="V102" s="45"/>
-      <c r="AD102" s="44"/>
-      <c r="AE102" s="45"/>
-    </row>
-    <row r="103" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="104" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="105" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="106" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="107" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="108" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="H108" s="11" t="s">
+      <c r="U103" s="44"/>
+      <c r="V103" s="45"/>
+      <c r="AD103" s="44"/>
+      <c r="AE103" s="45"/>
+    </row>
+    <row r="104" spans="2:31" s="11" customFormat="1"/>
+    <row r="105" spans="2:31" s="11" customFormat="1"/>
+    <row r="106" spans="2:31" s="11" customFormat="1"/>
+    <row r="107" spans="2:31" s="11" customFormat="1"/>
+    <row r="108" spans="2:31" s="11" customFormat="1"/>
+    <row r="109" spans="2:31" s="11" customFormat="1">
+      <c r="H109" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="110" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="111" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="11" t="s">
+    <row r="110" spans="2:31" s="11" customFormat="1"/>
+    <row r="111" spans="2:31" s="11" customFormat="1"/>
+    <row r="112" spans="2:31" s="11" customFormat="1">
+      <c r="B112" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="112" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C112" s="40" t="s">
+    <row r="113" spans="2:17" s="11" customFormat="1">
+      <c r="C113" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="D112" s="41"/>
-      <c r="E112" s="41"/>
-      <c r="F112" s="42"/>
-      <c r="Q112" s="4"/>
-    </row>
-    <row r="113" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C113" s="40"/>
-      <c r="D113" s="41" t="s">
-        <v>148</v>
-      </c>
+      <c r="D113" s="41"/>
       <c r="E113" s="41"/>
       <c r="F113" s="42"/>
-    </row>
-    <row r="114" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C114" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="D114" s="41"/>
+      <c r="Q113" s="4"/>
+    </row>
+    <row r="114" spans="2:17" s="11" customFormat="1">
+      <c r="C114" s="40"/>
+      <c r="D114" s="41" t="s">
+        <v>148</v>
+      </c>
       <c r="E114" s="41"/>
       <c r="F114" s="42"/>
     </row>
-    <row r="115" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C115" s="40"/>
-      <c r="D115" s="41" t="s">
-        <v>150</v>
-      </c>
+    <row r="115" spans="2:17" s="11" customFormat="1">
+      <c r="C115" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D115" s="41"/>
       <c r="E115" s="41"/>
       <c r="F115" s="42"/>
     </row>
-    <row r="116" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C116" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="D116" s="41"/>
+    <row r="116" spans="2:17" s="11" customFormat="1">
+      <c r="C116" s="40"/>
+      <c r="D116" s="41" t="s">
+        <v>150</v>
+      </c>
       <c r="E116" s="41"/>
       <c r="F116" s="42"/>
     </row>
-    <row r="117" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C117" s="46" t="s">
+    <row r="117" spans="2:17" s="11" customFormat="1">
+      <c r="C117" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D117" s="41"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="42"/>
+    </row>
+    <row r="118" spans="2:17" s="11" customFormat="1">
+      <c r="C118" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D117" s="42" t="s">
+      <c r="D118" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="E117" s="41"/>
-      <c r="F117" s="42" t="s">
+      <c r="E118" s="41"/>
+      <c r="F118" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="118" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C118" s="46" t="s">
+    <row r="119" spans="2:17" s="11" customFormat="1">
+      <c r="C119" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="D118" s="42" t="s">
+      <c r="D119" s="42" t="s">
         <v>187</v>
-      </c>
-      <c r="E118" s="41"/>
-      <c r="F118" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="4"/>
-      <c r="C119" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="D119" s="42" t="s">
-        <v>181</v>
       </c>
       <c r="E119" s="41"/>
       <c r="F119" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G119" s="4"/>
-    </row>
-    <row r="120" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="120" spans="2:17" s="11" customFormat="1">
+      <c r="B120" s="4"/>
       <c r="C120" s="46" t="s">
         <v>157</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E120" s="41"/>
       <c r="F120" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" spans="2:17" s="11" customFormat="1">
       <c r="C121" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D121" s="11" t="s">
-        <v>183</v>
+      <c r="D121" s="42" t="s">
+        <v>182</v>
       </c>
       <c r="E121" s="41"/>
       <c r="F121" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="2:17" s="11" customFormat="1">
+      <c r="C122" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E122" s="41"/>
+      <c r="F122" s="11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="122" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="44" t="s">
+    <row r="123" spans="2:17" s="11" customFormat="1">
+      <c r="C123" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="D122" s="45"/>
-      <c r="E122" s="41"/>
-    </row>
-    <row r="123" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="45"/>
+      <c r="E123" s="41"/>
+    </row>
+    <row r="124" spans="2:17" s="11" customFormat="1">
+      <c r="D124" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E123" s="41"/>
-    </row>
-    <row r="124" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D124" s="11" t="s">
+      <c r="E124" s="41"/>
+    </row>
+    <row r="125" spans="2:17" s="11" customFormat="1">
+      <c r="D125" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E124" s="45"/>
-      <c r="F124" s="42"/>
-    </row>
-    <row r="125" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C125" s="11" t="s">
+      <c r="E125" s="45"/>
+      <c r="F125" s="42"/>
+    </row>
+    <row r="126" spans="2:17" s="11" customFormat="1">
+      <c r="C126" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F125" s="43"/>
-    </row>
-    <row r="126" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D126" s="61" t="s">
+      <c r="F126" s="43"/>
+    </row>
+    <row r="127" spans="2:17" s="11" customFormat="1">
+      <c r="D127" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="F126" s="43"/>
-    </row>
-    <row r="127" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="11" t="s">
+      <c r="F127" s="43"/>
+    </row>
+    <row r="128" spans="2:17" s="11" customFormat="1">
+      <c r="C128" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="128" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D128" s="11" t="s">
+    <row r="129" spans="3:5" s="11" customFormat="1">
+      <c r="D129" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E129" s="61" t="s">
+    <row r="130" spans="3:5" s="11" customFormat="1">
+      <c r="E130" s="61" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="130" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="131" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D131" s="11" t="s">
+    <row r="131" spans="3:5" s="11" customFormat="1"/>
+    <row r="132" spans="3:5" s="11" customFormat="1">
+      <c r="D132" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="133" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E133" s="11" t="s">
+    <row r="133" spans="3:5" s="11" customFormat="1"/>
+    <row r="134" spans="3:5" s="11" customFormat="1">
+      <c r="E134" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E134" s="11" t="s">
+    <row r="135" spans="3:5" s="11" customFormat="1">
+      <c r="E135" s="11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="135" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E135" s="11" t="s">
+    <row r="136" spans="3:5" s="11" customFormat="1">
+      <c r="E136" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="137" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="138" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="139" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="11" t="s">
+    <row r="137" spans="3:5" s="11" customFormat="1"/>
+    <row r="138" spans="3:5" s="11" customFormat="1"/>
+    <row r="139" spans="3:5" s="11" customFormat="1"/>
+    <row r="140" spans="3:5" s="11" customFormat="1">
+      <c r="C140" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D140" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="140" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="141" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="142" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="143" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D143" s="11" t="s">
+    <row r="141" spans="3:5" s="11" customFormat="1"/>
+    <row r="142" spans="3:5" s="11" customFormat="1"/>
+    <row r="143" spans="3:5" s="11" customFormat="1"/>
+    <row r="144" spans="3:5" s="11" customFormat="1">
+      <c r="D144" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="144" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="145" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="146" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="147" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D147" s="11" t="s">
+    <row r="145" spans="2:13" s="11" customFormat="1"/>
+    <row r="146" spans="2:13" s="11" customFormat="1"/>
+    <row r="147" spans="2:13" s="11" customFormat="1"/>
+    <row r="148" spans="2:13" s="11" customFormat="1">
+      <c r="D148" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="148" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="149" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="150" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="151" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="152" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C152" s="11" t="s">
+    <row r="149" spans="2:13" s="11" customFormat="1"/>
+    <row r="150" spans="2:13" s="11" customFormat="1"/>
+    <row r="151" spans="2:13" s="11" customFormat="1"/>
+    <row r="152" spans="2:13" s="11" customFormat="1"/>
+    <row r="153" spans="2:13" s="11" customFormat="1">
+      <c r="C153" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="153" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C153" s="61" t="s">
+    <row r="154" spans="2:13" s="11" customFormat="1">
+      <c r="C154" s="61" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="154" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="61" t="s">
+    <row r="155" spans="2:13" s="11" customFormat="1">
+      <c r="C155" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="M154" s="11" t="s">
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="M155" s="11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="155" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="46" t="s">
+    <row r="156" spans="2:13" s="11" customFormat="1">
+      <c r="B156" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="C155" s="11" t="s">
+      <c r="C156" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="I155" s="11" t="s">
+      <c r="I156" s="11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="156" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="157" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C157" s="11" t="s">
+    <row r="157" spans="2:13" s="11" customFormat="1"/>
+    <row r="158" spans="2:13" s="11" customFormat="1">
+      <c r="C158" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="11" t="s">
+    <row r="159" spans="2:13" s="11" customFormat="1">
+      <c r="B159" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C159" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="159" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="160" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="161" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="162" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="163" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="164" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="165" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="166" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="167" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="168" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="169" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="170" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="171" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="172" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="173" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="174" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="175" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="176" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="177" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="178" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="M178" s="4"/>
-    </row>
-    <row r="179" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="43" t="s">
+    <row r="160" spans="2:13" s="11" customFormat="1"/>
+    <row r="161" s="11" customFormat="1"/>
+    <row r="162" s="11" customFormat="1"/>
+    <row r="163" s="11" customFormat="1"/>
+    <row r="164" s="11" customFormat="1"/>
+    <row r="165" s="11" customFormat="1"/>
+    <row r="166" s="11" customFormat="1"/>
+    <row r="167" s="11" customFormat="1"/>
+    <row r="168" s="11" customFormat="1"/>
+    <row r="169" s="11" customFormat="1"/>
+    <row r="170" s="11" customFormat="1"/>
+    <row r="171" s="11" customFormat="1"/>
+    <row r="172" s="11" customFormat="1"/>
+    <row r="173" s="11" customFormat="1"/>
+    <row r="174" s="11" customFormat="1"/>
+    <row r="175" s="11" customFormat="1"/>
+    <row r="176" s="11" customFormat="1"/>
+    <row r="177" spans="2:18" s="11" customFormat="1"/>
+    <row r="178" spans="2:18" s="11" customFormat="1"/>
+    <row r="179" spans="2:18" s="11" customFormat="1">
+      <c r="M179" s="4"/>
+    </row>
+    <row r="180" spans="2:18" s="11" customFormat="1">
+      <c r="B180" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C180" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D179" s="11" t="s">
+      <c r="D180" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="M179" s="4"/>
-    </row>
-    <row r="180" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="43"/>
-      <c r="C180" s="49"/>
-    </row>
-    <row r="181" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="43" t="s">
+      <c r="M180" s="4"/>
+    </row>
+    <row r="181" spans="2:18" s="11" customFormat="1">
+      <c r="B181" s="43"/>
+      <c r="C181" s="49"/>
+    </row>
+    <row r="182" spans="2:18" s="11" customFormat="1">
+      <c r="B182" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="J181" s="43"/>
-      <c r="M181" s="4"/>
-    </row>
-    <row r="182" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="46" t="s">
+      <c r="J182" s="43"/>
+      <c r="M182" s="4"/>
+    </row>
+    <row r="183" spans="2:18" s="11" customFormat="1">
+      <c r="B183" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C183" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="M182" s="4"/>
-    </row>
-    <row r="183" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="63"/>
-      <c r="C183" s="11" t="s">
-        <v>234</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
-      <c r="I183" s="5"/>
-    </row>
-    <row r="184" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I183" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="M183" s="4"/>
+    </row>
+    <row r="184" spans="2:18" s="11" customFormat="1">
+      <c r="B184" s="63"/>
       <c r="C184" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+    </row>
+    <row r="185" spans="2:18" s="11" customFormat="1">
+      <c r="C185" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M184" s="4"/>
-    </row>
-    <row r="185" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="K185" s="4"/>
-      <c r="L185" s="4"/>
       <c r="M185" s="4"/>
-      <c r="R185" s="4"/>
-    </row>
-    <row r="186" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B186" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>169</v>
-      </c>
+    </row>
+    <row r="186" spans="2:18" s="11" customFormat="1">
       <c r="K186" s="4"/>
       <c r="L186" s="4"/>
       <c r="M186" s="4"/>
       <c r="R186" s="4"/>
     </row>
-    <row r="187" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:18" s="11" customFormat="1">
+      <c r="B187" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="C187" s="11" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="K187" s="4"/>
       <c r="L187" s="4"/>
       <c r="M187" s="4"/>
-      <c r="N187" s="4"/>
-      <c r="O187" s="4"/>
-      <c r="P187" s="4"/>
-      <c r="Q187" s="4"/>
-    </row>
-    <row r="188" spans="2:18" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B188" s="46" t="s">
-        <v>157</v>
-      </c>
+      <c r="R187" s="4"/>
+    </row>
+    <row r="188" spans="2:18" s="11" customFormat="1">
       <c r="C188" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D188" s="64" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
@@ -7813,32 +7880,38 @@
       <c r="O188" s="4"/>
       <c r="P188" s="4"/>
       <c r="Q188" s="4"/>
-      <c r="R188" s="4"/>
-    </row>
-    <row r="189" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="2:18" s="11" customFormat="1" ht="17.25">
+      <c r="B189" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>224</v>
+      </c>
       <c r="D189" s="64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
       <c r="M189" s="4"/>
+      <c r="N189" s="4"/>
+      <c r="O189" s="4"/>
+      <c r="P189" s="4"/>
+      <c r="Q189" s="4"/>
       <c r="R189" s="4"/>
     </row>
-    <row r="190" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B190" s="11" t="s">
-        <v>215</v>
+    <row r="190" spans="2:18" s="11" customFormat="1">
+      <c r="D190" s="64" t="s">
+        <v>222</v>
       </c>
       <c r="K190" s="4"/>
       <c r="L190" s="4"/>
       <c r="M190" s="4"/>
-      <c r="N190" s="4"/>
-      <c r="O190" s="4"/>
-      <c r="P190" s="4"/>
-      <c r="Q190" s="4"/>
-    </row>
-    <row r="191" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C191" s="11" t="s">
-        <v>175</v>
+      <c r="R190" s="4"/>
+    </row>
+    <row r="191" spans="2:18" s="11" customFormat="1">
+      <c r="B191" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="K191" s="4"/>
       <c r="L191" s="4"/>
@@ -7847,42 +7920,38 @@
       <c r="O191" s="4"/>
       <c r="P191" s="4"/>
       <c r="Q191" s="4"/>
-      <c r="R191" s="4"/>
-    </row>
-    <row r="192" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B192" s="11" t="s">
-        <v>172</v>
+    </row>
+    <row r="192" spans="2:18" s="11" customFormat="1">
+      <c r="C192" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="K192" s="4"/>
       <c r="L192" s="4"/>
       <c r="M192" s="4"/>
+      <c r="N192" s="4"/>
+      <c r="O192" s="4"/>
+      <c r="P192" s="4"/>
+      <c r="Q192" s="4"/>
       <c r="R192" s="4"/>
     </row>
-    <row r="193" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="D193" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G193" s="11" t="s">
-        <v>195</v>
+    <row r="193" spans="1:25" s="11" customFormat="1">
+      <c r="B193" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="K193" s="4"/>
       <c r="L193" s="4"/>
       <c r="M193" s="4"/>
-      <c r="N193" s="4"/>
-      <c r="O193" s="4"/>
-      <c r="P193" s="4"/>
-      <c r="Q193" s="4"/>
       <c r="R193" s="4"/>
     </row>
-    <row r="194" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B194" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>179</v>
+    <row r="194" spans="1:25" s="11" customFormat="1">
+      <c r="B194" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G194" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="K194" s="4"/>
       <c r="L194" s="4"/>
@@ -7893,7 +7962,13 @@
       <c r="Q194" s="4"/>
       <c r="R194" s="4"/>
     </row>
-    <row r="195" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:25" s="11" customFormat="1">
+      <c r="B195" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="K195" s="4"/>
       <c r="L195" s="4"/>
       <c r="M195" s="4"/>
@@ -7903,7 +7978,7 @@
       <c r="Q195" s="4"/>
       <c r="R195" s="4"/>
     </row>
-    <row r="196" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:25" s="11" customFormat="1">
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
       <c r="M196" s="4"/>
@@ -7913,32 +7988,23 @@
       <c r="Q196" s="4"/>
       <c r="R196" s="4"/>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E197" s="11"/>
-      <c r="F197" s="11"/>
-      <c r="G197" s="11"/>
-      <c r="H197" s="11"/>
-      <c r="I197" s="11"/>
-      <c r="J197" s="11"/>
-      <c r="T197" s="11"/>
-      <c r="U197" s="11"/>
-      <c r="V197" s="11"/>
-      <c r="W197" s="11"/>
-      <c r="X197" s="11"/>
-      <c r="Y197" s="11"/>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:25" s="11" customFormat="1">
+      <c r="K197" s="4"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4"/>
+      <c r="O197" s="4"/>
+      <c r="P197" s="4"/>
+      <c r="Q197" s="4"/>
+      <c r="R197" s="4"/>
+    </row>
+    <row r="198" spans="1:25">
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
-      <c r="E198" s="11" t="s">
-        <v>142</v>
-      </c>
+      <c r="D198" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E198" s="11"/>
       <c r="F198" s="11"/>
       <c r="G198" s="11"/>
       <c r="H198" s="11"/>
@@ -7951,127 +8017,146 @@
       <c r="X198" s="11"/>
       <c r="Y198" s="11"/>
     </row>
-    <row r="199" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:25">
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
       <c r="E199" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="11"/>
+      <c r="J199" s="11"/>
+      <c r="T199" s="11"/>
+      <c r="U199" s="11"/>
+      <c r="V199" s="11"/>
+      <c r="W199" s="11"/>
+      <c r="X199" s="11"/>
+      <c r="Y199" s="11"/>
+    </row>
+    <row r="200" spans="1:25" s="11" customFormat="1">
+      <c r="E200" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K199" s="4"/>
-      <c r="L199" s="4"/>
-      <c r="M199" s="4"/>
-      <c r="N199" s="4"/>
-      <c r="O199" s="4"/>
-      <c r="P199" s="4"/>
-      <c r="Q199" s="4"/>
-      <c r="R199" s="4"/>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A200" s="11" t="s">
+      <c r="K200" s="4"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
+      <c r="O200" s="4"/>
+      <c r="P200" s="4"/>
+      <c r="Q200" s="4"/>
+      <c r="R200" s="4"/>
+    </row>
+    <row r="201" spans="1:25">
+      <c r="A201" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B200" s="11"/>
-      <c r="C200" s="11"/>
-      <c r="E200" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F200" s="11"/>
-      <c r="G200" s="11"/>
-      <c r="H200" s="11"/>
-      <c r="I200" s="11"/>
-      <c r="J200" s="11"/>
-      <c r="T200" s="11"/>
-      <c r="U200" s="11"/>
-      <c r="V200" s="11"/>
-      <c r="W200" s="11"/>
-      <c r="X200" s="11"/>
-      <c r="Y200" s="11"/>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
-      <c r="D201" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E201" s="11"/>
+      <c r="E201" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="F201" s="11"/>
       <c r="G201" s="11"/>
       <c r="H201" s="11"/>
       <c r="I201" s="11"/>
       <c r="J201" s="11"/>
-    </row>
-    <row r="202" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E202" s="11" t="s">
+      <c r="T201" s="11"/>
+      <c r="U201" s="11"/>
+      <c r="V201" s="11"/>
+      <c r="W201" s="11"/>
+      <c r="X201" s="11"/>
+      <c r="Y201" s="11"/>
+    </row>
+    <row r="202" spans="1:25">
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
+      <c r="H202" s="11"/>
+      <c r="I202" s="11"/>
+      <c r="J202" s="11"/>
+    </row>
+    <row r="203" spans="1:25" s="11" customFormat="1">
+      <c r="E203" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I202" s="4"/>
-      <c r="J202" s="4"/>
-      <c r="K202" s="4"/>
-      <c r="L202" s="4"/>
-      <c r="M202" s="4"/>
-      <c r="N202" s="4"/>
-      <c r="O202" s="4"/>
-      <c r="P202" s="4"/>
-      <c r="Q202" s="4"/>
-      <c r="R202" s="4"/>
-      <c r="T202" s="4"/>
-      <c r="U202" s="4"/>
-      <c r="V202" s="4"/>
-      <c r="W202" s="4"/>
-      <c r="X202" s="4"/>
-      <c r="Y202" s="4"/>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B203" s="11"/>
-      <c r="C203" s="11"/>
-      <c r="E203" s="11"/>
-      <c r="F203" s="11"/>
-      <c r="G203" s="11"/>
-      <c r="H203" s="11"/>
-    </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="I203" s="4"/>
+      <c r="J203" s="4"/>
+      <c r="K203" s="4"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+      <c r="O203" s="4"/>
+      <c r="P203" s="4"/>
+      <c r="Q203" s="4"/>
+      <c r="R203" s="4"/>
+      <c r="T203" s="4"/>
+      <c r="U203" s="4"/>
+      <c r="V203" s="4"/>
+      <c r="W203" s="4"/>
+      <c r="X203" s="4"/>
+      <c r="Y203" s="4"/>
+    </row>
+    <row r="204" spans="1:25">
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B205" s="38" t="s">
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="11"/>
+      <c r="H204" s="11"/>
+    </row>
+    <row r="205" spans="1:25">
+      <c r="B205" s="11"/>
+      <c r="C205" s="11"/>
+    </row>
+    <row r="206" spans="1:25">
+      <c r="B206" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C205" s="39" t="s">
+      <c r="C206" s="39" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:25">
+      <c r="B207" s="11"/>
       <c r="C207" s="11"/>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B208" s="11"/>
+    <row r="208" spans="1:25">
       <c r="C208" s="11"/>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:3">
       <c r="B209" s="11"/>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C209" s="11"/>
+    </row>
+    <row r="210" spans="2:3">
       <c r="B210" s="11"/>
-      <c r="C210" s="11"/>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C212" s="11"/>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B213" s="11"/>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" s="11"/>
+      <c r="C211" s="11"/>
+    </row>
+    <row r="213" spans="2:3">
       <c r="C213" s="11"/>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:3">
       <c r="B214" s="11"/>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B216" s="11"/>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B217" s="2"/>
+      <c r="C214" s="11"/>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" s="11"/>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217" s="11"/>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="B218" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8097,7 +8182,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="58.5" customWidth="1"/>
@@ -8109,7 +8194,7 @@
     <col min="18" max="18" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="16.5">
       <c r="A1" s="16"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -8123,7 +8208,7 @@
       <c r="I1" s="28"/>
       <c r="J1" s="27"/>
     </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="15">
       <c r="A2" s="32" t="s">
         <v>58</v>
       </c>
@@ -8137,15 +8222,15 @@
         <v>60</v>
       </c>
       <c r="G2" s="35"/>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="93"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="96"/>
       <c r="O2" s="33" t="s">
         <v>136</v>
       </c>
@@ -8168,31 +8253,31 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="16.5">
       <c r="A3" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="48">
         <v>1</v>
       </c>
-      <c r="F3" s="99" t="s">
+      <c r="F3" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="96" t="s">
+      <c r="G3" s="102"/>
+      <c r="H3" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="100"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
@@ -8201,29 +8286,29 @@
       <c r="T3" s="37"/>
       <c r="U3" s="37"/>
     </row>
-    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="16.5">
       <c r="A4" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="94" t="s">
+      <c r="G4" s="103"/>
+      <c r="H4" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="95"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
@@ -8232,21 +8317,21 @@
       <c r="T4" s="37"/>
       <c r="U4" s="37"/>
     </row>
-    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="16.5">
       <c r="A5" s="29"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="95"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="98"/>
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
@@ -8255,21 +8340,21 @@
       <c r="T5" s="37"/>
       <c r="U5" s="37"/>
     </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="16.5">
       <c r="A6" s="29"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="30"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="95"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="98"/>
       <c r="O6" s="37"/>
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
@@ -8278,21 +8363,21 @@
       <c r="T6" s="37"/>
       <c r="U6" s="37"/>
     </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="16.5">
       <c r="A7" s="29"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="95"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="98"/>
       <c r="O7" s="37"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
@@ -8301,21 +8386,21 @@
       <c r="T7" s="37"/>
       <c r="U7" s="37"/>
     </row>
-    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="16.5">
       <c r="A8" s="29"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="98"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="95"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="98"/>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
@@ -8324,21 +8409,21 @@
       <c r="T8" s="37"/>
       <c r="U8" s="37"/>
     </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="16.5">
       <c r="A9" s="29"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="95"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="98"/>
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
@@ -8347,21 +8432,21 @@
       <c r="T9" s="37"/>
       <c r="U9" s="37"/>
     </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="16.5">
       <c r="A10" s="29"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="95"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="98"/>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
@@ -8370,21 +8455,21 @@
       <c r="T10" s="37"/>
       <c r="U10" s="37"/>
     </row>
-    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="16.5">
       <c r="A11" s="29"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="95"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="98"/>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -8393,21 +8478,21 @@
       <c r="T11" s="37"/>
       <c r="U11" s="37"/>
     </row>
-    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="16.5">
       <c r="A12" s="29"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="95"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="98"/>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -8416,21 +8501,21 @@
       <c r="T12" s="37"/>
       <c r="U12" s="37"/>
     </row>
-    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="16.5">
       <c r="A13" s="29"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="98"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="95"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="98"/>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
@@ -8439,21 +8524,21 @@
       <c r="T13" s="37"/>
       <c r="U13" s="37"/>
     </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="16.5">
       <c r="A14" s="29"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="95"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="98"/>
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
@@ -8462,21 +8547,21 @@
       <c r="T14" s="37"/>
       <c r="U14" s="37"/>
     </row>
-    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="16.5">
       <c r="A15" s="29"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="98"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="95"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="98"/>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
@@ -8485,21 +8570,21 @@
       <c r="T15" s="37"/>
       <c r="U15" s="37"/>
     </row>
-    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="16.5">
       <c r="A16" s="29"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="95"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="98"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
@@ -8508,21 +8593,21 @@
       <c r="T16" s="37"/>
       <c r="U16" s="37"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="16.5">
       <c r="A17" s="29"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="98"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="95"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="98"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
@@ -8531,21 +8616,21 @@
       <c r="T17" s="37"/>
       <c r="U17" s="37"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="16.5">
       <c r="A18" s="29"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="95"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="98"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
@@ -8554,21 +8639,21 @@
       <c r="T18" s="37"/>
       <c r="U18" s="37"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="16.5">
       <c r="A19" s="29"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="95"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="95"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="98"/>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
@@ -8577,19 +8662,19 @@
       <c r="T19" s="37"/>
       <c r="U19" s="37"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23">
       <c r="T20" s="37"/>
       <c r="U20" s="37"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23">
       <c r="T21" s="37"/>
       <c r="U21" s="37"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23">
       <c r="T22" s="37"/>
       <c r="U22" s="37"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -8610,7 +8695,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="16.5">
       <c r="T32" s="31"/>
       <c r="U32" s="31"/>
       <c r="V32" s="31"/>
@@ -8684,12 +8769,12 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
@@ -8700,7 +8785,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -8711,7 +8796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -8722,7 +8807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -8733,7 +8818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -8744,7 +8829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -8755,7 +8840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -8766,7 +8851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -8777,7 +8862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -8788,7 +8873,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -8799,7 +8884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -8810,7 +8895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -8821,7 +8906,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -8832,7 +8917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -8843,7 +8928,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -8854,7 +8939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -8865,7 +8950,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -8876,7 +8961,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -8887,7 +8972,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -8898,7 +8983,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -8909,7 +8994,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -8920,7 +9005,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -8931,7 +9016,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -8942,7 +9027,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -8953,7 +9038,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -8964,7 +9049,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -8975,7 +9060,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -8986,7 +9071,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -8997,7 +9082,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -9008,7 +9093,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -9019,7 +9104,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -9030,7 +9115,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -9041,7 +9126,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -9052,7 +9137,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -9063,7 +9148,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -9074,7 +9159,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -9085,7 +9170,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -9096,7 +9181,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -9107,7 +9192,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -9118,7 +9203,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -9129,7 +9214,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -9140,7 +9225,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -9151,7 +9236,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -9162,7 +9247,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -9173,7 +9258,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -9184,7 +9269,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="12">
         <v>45</v>
       </c>
@@ -9195,7 +9280,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -9206,7 +9291,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" s="12">
         <v>47</v>
       </c>
@@ -9217,7 +9302,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="12">
         <v>48</v>
       </c>
@@ -9228,7 +9313,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" s="12">
         <v>49</v>
       </c>
@@ -9239,7 +9324,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" s="12">
         <v>50</v>
       </c>
@@ -9250,7 +9335,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="12">
         <v>51</v>
       </c>
@@ -9261,7 +9346,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="12">
         <v>52</v>
       </c>
@@ -9272,7 +9357,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" s="12">
         <v>53</v>
       </c>
@@ -9283,7 +9368,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55" s="12">
         <v>54</v>
       </c>
@@ -9294,7 +9379,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="A56" s="12">
         <v>55</v>
       </c>
@@ -9305,7 +9390,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" s="12">
         <v>56</v>
       </c>
@@ -9316,7 +9401,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -9327,7 +9412,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="12">
         <v>58</v>
       </c>
@@ -9338,7 +9423,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3">
       <c r="A60" s="12">
         <v>59</v>
       </c>
@@ -9349,7 +9434,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" s="12">
         <v>60</v>
       </c>
@@ -9360,7 +9445,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3">
       <c r="A62" s="12">
         <v>61</v>
       </c>
@@ -9371,7 +9456,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" s="12">
         <v>62</v>
       </c>
@@ -9382,7 +9467,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" s="12">
         <v>63</v>
       </c>
@@ -9393,7 +9478,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" s="12">
         <v>64</v>
       </c>
@@ -9404,7 +9489,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3">
       <c r="A66" s="12">
         <v>65</v>
       </c>
@@ -9415,7 +9500,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3">
       <c r="A67" s="12">
         <v>66</v>
       </c>
@@ -9426,7 +9511,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3">
       <c r="A68" s="12">
         <v>67</v>
       </c>
@@ -9437,7 +9522,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -9448,7 +9533,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3">
       <c r="A70" s="12">
         <v>69</v>
       </c>
@@ -9459,7 +9544,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3">
       <c r="A71" s="12">
         <v>70</v>
       </c>
@@ -9470,7 +9555,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3">
       <c r="A72" s="12">
         <v>71</v>
       </c>
@@ -9481,7 +9566,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3">
       <c r="A73" s="12">
         <v>72</v>
       </c>
@@ -9492,7 +9577,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -9503,7 +9588,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3">
       <c r="A75" s="12">
         <v>74</v>
       </c>
@@ -9514,7 +9599,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3">
       <c r="A76" s="12">
         <v>75</v>
       </c>
@@ -9525,7 +9610,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3">
       <c r="A77" s="12">
         <v>76</v>
       </c>
@@ -9536,7 +9621,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3">
       <c r="A78" s="12">
         <v>77</v>
       </c>
@@ -9547,7 +9632,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -9558,7 +9643,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -9569,7 +9654,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3">
       <c r="A81" s="12">
         <v>80</v>
       </c>
@@ -9580,7 +9665,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -9591,7 +9676,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3">
       <c r="A83" s="12">
         <v>82</v>
       </c>
@@ -9602,7 +9687,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3">
       <c r="A84" s="12">
         <v>83</v>
       </c>
@@ -9613,7 +9698,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3">
       <c r="A85" s="12">
         <v>84</v>
       </c>
@@ -9624,7 +9709,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3">
       <c r="A86" s="12">
         <v>85</v>
       </c>
@@ -9635,7 +9720,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3">
       <c r="A87" s="12">
         <v>86</v>
       </c>
@@ -9646,7 +9731,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3">
       <c r="A88" s="12">
         <v>87</v>
       </c>
@@ -9657,7 +9742,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3">
       <c r="A89" s="12">
         <v>88</v>
       </c>
@@ -9668,7 +9753,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3">
       <c r="A90" s="12">
         <v>89</v>
       </c>
@@ -9679,7 +9764,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3">
       <c r="A91" s="12">
         <v>90</v>
       </c>
@@ -9690,7 +9775,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3">
       <c r="A92" s="12">
         <v>91</v>
       </c>
@@ -9701,7 +9786,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3">
       <c r="A93" s="12">
         <v>92</v>
       </c>
@@ -9712,7 +9797,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3">
       <c r="A94" s="12">
         <v>93</v>
       </c>
@@ -9723,7 +9808,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3">
       <c r="A95" s="12">
         <v>94</v>
       </c>
@@ -9734,7 +9819,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3">
       <c r="A96" s="12">
         <v>95</v>
       </c>
@@ -9745,7 +9830,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3">
       <c r="A97" s="12">
         <v>96</v>
       </c>
@@ -9756,7 +9841,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3">
       <c r="A98" s="12">
         <v>97</v>
       </c>
@@ -9767,7 +9852,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3">
       <c r="A99" s="12">
         <v>98</v>
       </c>
@@ -9778,7 +9863,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3">
       <c r="A100" s="12">
         <v>99</v>
       </c>
@@ -9806,14 +9891,14 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="8" width="9" style="1"/>
     <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -9835,12 +9920,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -9851,7 +9936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -9869,7 +9954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -9887,7 +9972,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -9911,7 +9996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -9929,148 +10014,148 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:3" ht="96" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="96">
       <c r="B17" s="3"/>
       <c r="C17" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:3">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:2">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:2">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:2">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:2">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:2">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:2">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:2">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:2">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:2">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:2">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:2">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:2">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2">
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:2">
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:2">
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:2">
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:2">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:2">
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:2">
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:2">
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:2">
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:2">
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:2">
       <c r="B59" s="3"/>
     </row>
   </sheetData>
@@ -10084,18 +10169,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="35.875" customWidth="1"/>
     <col min="2" max="2" width="37.375" customWidth="1"/>
     <col min="3" max="3" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23">
       <c r="A2" s="37" t="s">
         <v>177</v>
       </c>
@@ -10125,7 +10210,7 @@
       <c r="V2" s="37"/>
       <c r="W2" s="37"/>
     </row>
-    <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="16.5">
       <c r="A3" s="50"/>
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
@@ -10150,7 +10235,7 @@
       <c r="V3" s="37"/>
       <c r="W3" s="37"/>
     </row>
-    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="16.5">
       <c r="A4" s="50" t="s">
         <v>176</v>
       </c>
@@ -10181,7 +10266,7 @@
       <c r="V4" s="37"/>
       <c r="W4" s="37"/>
     </row>
-    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="16.5">
       <c r="A5" s="50" t="s">
         <v>190</v>
       </c>
@@ -10212,7 +10297,7 @@
       <c r="V5" s="37"/>
       <c r="W5" s="37"/>
     </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="16.5">
       <c r="A6" s="11" t="s">
         <v>189</v>
       </c>
@@ -10243,7 +10328,7 @@
       <c r="V6" s="37"/>
       <c r="W6" s="37"/>
     </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="16.5">
       <c r="A7" s="50" t="s">
         <v>184</v>
       </c>
@@ -10274,7 +10359,7 @@
       <c r="V7" s="37"/>
       <c r="W7" s="37"/>
     </row>
-    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="16.5">
       <c r="A8" s="50" t="s">
         <v>178</v>
       </c>
@@ -10305,7 +10390,7 @@
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
     </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="16.5">
       <c r="A9" s="50" t="s">
         <v>242</v>
       </c>
@@ -10336,7 +10421,7 @@
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="16.5">
       <c r="A10" s="50" t="s">
         <v>195</v>
       </c>
@@ -10367,7 +10452,7 @@
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
     </row>
-    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="16.5">
       <c r="A11" s="50" t="s">
         <v>194</v>
       </c>
@@ -10398,7 +10483,7 @@
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
     </row>
-    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" ht="16.5">
       <c r="A12" s="69" t="s">
         <v>247</v>
       </c>
@@ -10429,7 +10514,7 @@
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>266</v>
       </c>
@@ -10460,7 +10545,7 @@
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23">
       <c r="A14" s="37"/>
       <c r="B14" s="57"/>
       <c r="C14" s="57"/>
@@ -10485,7 +10570,7 @@
       <c r="V14" s="37"/>
       <c r="W14" s="37"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23">
       <c r="A15" s="37"/>
       <c r="B15" s="57"/>
       <c r="C15" s="57"/>
@@ -10510,7 +10595,7 @@
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23">
       <c r="A16" s="37"/>
       <c r="B16" s="57"/>
       <c r="C16" s="57"/>
@@ -10535,7 +10620,7 @@
       <c r="V16" s="37"/>
       <c r="W16" s="37"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23">
       <c r="A17" s="37"/>
       <c r="B17" s="57"/>
       <c r="C17" s="57"/>
@@ -10560,7 +10645,7 @@
       <c r="V17" s="37"/>
       <c r="W17" s="37"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23">
       <c r="A18" s="37"/>
       <c r="B18" s="57"/>
       <c r="C18" s="57"/>
@@ -10585,7 +10670,7 @@
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23">
       <c r="A19" s="37"/>
       <c r="B19" s="57"/>
       <c r="C19" s="57"/>
@@ -10610,7 +10695,7 @@
       <c r="V19" s="37"/>
       <c r="W19" s="37"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23">
       <c r="A20" s="37"/>
       <c r="B20" s="57"/>
       <c r="C20" s="57"/>
@@ -10635,7 +10720,7 @@
       <c r="V20" s="37"/>
       <c r="W20" s="37"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -10660,7 +10745,7 @@
       <c r="V21" s="37"/>
       <c r="W21" s="37"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -10685,7 +10770,7 @@
       <c r="V22" s="37"/>
       <c r="W22" s="37"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -10710,7 +10795,7 @@
       <c r="V23" s="37"/>
       <c r="W23" s="37"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -10735,7 +10820,7 @@
       <c r="V24" s="37"/>
       <c r="W24" s="37"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -10760,7 +10845,7 @@
       <c r="V25" s="37"/>
       <c r="W25" s="37"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -10785,7 +10870,7 @@
       <c r="V26" s="37"/>
       <c r="W26" s="37"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -10810,7 +10895,7 @@
       <c r="V27" s="37"/>
       <c r="W27" s="37"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -10835,7 +10920,7 @@
       <c r="V28" s="37"/>
       <c r="W28" s="37"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -10860,7 +10945,7 @@
       <c r="V29" s="37"/>
       <c r="W29" s="37"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -10885,7 +10970,7 @@
       <c r="V30" s="37"/>
       <c r="W30" s="37"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23">
       <c r="A31" s="37"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -10910,7 +10995,7 @@
       <c r="V31" s="37"/>
       <c r="W31" s="37"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -10935,7 +11020,7 @@
       <c r="V32" s="37"/>
       <c r="W32" s="37"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -10960,7 +11045,7 @@
       <c r="V33" s="37"/>
       <c r="W33" s="37"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
@@ -11000,54 +11085,54 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5">
       <c r="C3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5">
       <c r="D4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5">
       <c r="C6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5">
       <c r="D7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5">
       <c r="D8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5">
       <c r="D9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5">
       <c r="D10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:5">
       <c r="C12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:5">
       <c r="D13" t="s">
         <v>202</v>
       </c>
@@ -11069,17 +11154,17 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11">
       <c r="B24" t="s">
         <v>252</v>
       </c>
@@ -11096,7 +11181,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11">
       <c r="B26" t="s">
         <v>254</v>
       </c>
@@ -11108,12 +11193,12 @@
       <c r="F26" s="72"/>
       <c r="G26" s="72"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8">
       <c r="B50" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:8">
       <c r="B51" t="s">
         <v>256</v>
       </c>
@@ -11121,7 +11206,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:8">
       <c r="B52" s="71" t="s">
         <v>257</v>
       </c>
@@ -11131,7 +11216,7 @@
       <c r="D52" s="71"/>
       <c r="E52" s="71"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:8">
       <c r="B53" t="s">
         <v>261</v>
       </c>
@@ -11139,7 +11224,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8">
       <c r="B55" s="72" t="s">
         <v>260</v>
       </c>

--- a/gd/道具系统/活力值系统.xlsx
+++ b/gd/道具系统/活力值系统.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\道具系统\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="585" yWindow="-90" windowWidth="27765" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="585" yWindow="-90" windowWidth="27765" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -24,7 +19,7 @@
   <definedNames>
     <definedName name="此规则不适用于邮箱">基本内容!$D$89:$E$89</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="278">
   <si>
     <t>设一个普通对局要</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1077,6 +1072,18 @@
   </si>
   <si>
     <t>此规则不适用于邮箱，邮箱处理方式见《邮箱系统设计》文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*当商城有折扣活动时,快速购买价格也会变动.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值与商城活动相关.规则说明.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1087,7 +1094,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1821,6 +1828,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1829,33 +1863,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -6088,7 +6095,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6096,18 +6103,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5">
+    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
@@ -6128,7 +6135,7 @@
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
     </row>
-    <row r="2" spans="1:15" ht="16.5">
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -6145,7 +6152,7 @@
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
     </row>
-    <row r="3" spans="1:15" ht="17.25">
+    <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -6166,7 +6173,7 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:15" ht="16.5">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
@@ -6183,7 +6190,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:15" ht="16.5">
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
@@ -6204,7 +6211,7 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" ht="16.5">
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -6221,7 +6228,7 @@
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:15" ht="99">
+    <row r="7" spans="1:15" ht="99" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>30</v>
       </c>
@@ -6242,7 +6249,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:15" ht="16.5">
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
@@ -6259,7 +6266,7 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:15" ht="16.5">
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -6276,7 +6283,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:15" ht="17.25" thickBot="1">
+    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
         <v>31</v>
       </c>
@@ -6295,7 +6302,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="1:15" ht="17.25" thickTop="1">
+    <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="83" t="s">
         <v>31</v>
@@ -6316,7 +6323,7 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:15" ht="16.5">
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="21" t="s">
         <v>33</v>
@@ -6335,7 +6342,7 @@
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="1:15" ht="16.5">
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="21" t="s">
         <v>34</v>
@@ -6356,7 +6363,7 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:15" ht="16.5">
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="21" t="s">
         <v>35</v>
@@ -6375,7 +6382,7 @@
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="1:15" ht="16.5">
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="21" t="s">
         <v>36</v>
@@ -6394,7 +6401,7 @@
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="1:15" ht="16.5">
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="21" t="s">
         <v>38</v>
@@ -6413,7 +6420,7 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:15" ht="16.5">
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="21" t="s">
         <v>39</v>
@@ -6432,7 +6439,7 @@
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="1:15" ht="17.25" thickBot="1">
+    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15"/>
       <c r="B18" s="24" t="s">
         <v>40</v>
@@ -6451,7 +6458,7 @@
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="1:15" ht="17.25" thickTop="1">
+    <row r="19" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -6468,7 +6475,7 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="1:15" ht="16.5">
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>41</v>
       </c>
@@ -6499,7 +6506,7 @@
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="1:15" ht="16.5">
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
@@ -6516,7 +6523,7 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="1:15" ht="16.5">
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="16" t="s">
         <v>48</v>
@@ -6543,7 +6550,7 @@
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="1:15" ht="16.5">
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="16" t="s">
         <v>67</v>
@@ -6568,7 +6575,7 @@
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="1:15" ht="16.5">
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="16" t="s">
         <v>228</v>
@@ -6593,7 +6600,7 @@
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="1:15" ht="16.5">
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
       <c r="B25" s="16" t="s">
         <v>229</v>
@@ -6618,7 +6625,7 @@
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5">
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="26">
@@ -6641,32 +6648,48 @@
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="1:15" ht="16.5">
-      <c r="A27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="E27" s="70"/>
+      <c r="G27" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>277</v>
+      </c>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6692,11 +6715,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M91" sqref="M91"/>
+    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="4" customWidth="1"/>
@@ -6707,29 +6730,29 @@
     <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1">
+    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
         <v>75</v>
@@ -6744,30 +6767,30 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1">
+    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" ht="17.25" thickBot="1">
+    <row r="10" spans="1:13" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>140</v>
       </c>
@@ -6783,7 +6806,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:13" s="11" customFormat="1">
+    <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="93"/>
       <c r="E11" s="93"/>
@@ -6797,13 +6820,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="11" customFormat="1">
+    <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="11" customFormat="1">
+    <row r="13" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="11" t="s">
         <v>166</v>
@@ -6815,21 +6838,21 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="11" customFormat="1">
+    <row r="14" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="11" customFormat="1">
+    <row r="15" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="C15" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="11" customFormat="1">
+    <row r="16" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:6" s="11" customFormat="1">
+    <row r="17" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="46" t="s">
         <v>248</v>
@@ -6841,33 +6864,33 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="2:6" s="11" customFormat="1">
+    <row r="18" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="11" customFormat="1">
+    <row r="19" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="11" customFormat="1">
+    <row r="20" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="D20" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="2:6" s="11" customFormat="1">
+    <row r="21" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:6" s="11" customFormat="1">
+    <row r="22" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C22" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="2:6" s="11" customFormat="1">
+    <row r="23" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>162</v>
       </c>
@@ -6875,82 +6898,82 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="2:6" s="11" customFormat="1">
+    <row r="24" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="2:6" s="11" customFormat="1">
+    <row r="25" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="2:6" s="11" customFormat="1">
+    <row r="26" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="2:6" s="11" customFormat="1">
+    <row r="27" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:6" s="11" customFormat="1">
+    <row r="28" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:6" s="11" customFormat="1">
+    <row r="29" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:6" s="11" customFormat="1">
+    <row r="30" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:6" s="11" customFormat="1">
+    <row r="31" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:6" s="11" customFormat="1">
+    <row r="32" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:17" s="11" customFormat="1">
+    <row r="33" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:17" s="11" customFormat="1">
+    <row r="34" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="2:17" s="11" customFormat="1">
+    <row r="35" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="2:17" s="11" customFormat="1">
+    <row r="36" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="2:17" s="11" customFormat="1">
+    <row r="37" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="2:17" s="11" customFormat="1">
+    <row r="38" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="2:17" s="11" customFormat="1">
+    <row r="39" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="2:17" s="11" customFormat="1">
+    <row r="40" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="2:17" s="11" customFormat="1">
+    <row r="41" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="2:17" s="11" customFormat="1">
+    <row r="42" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="2:17" s="11" customFormat="1">
+    <row r="43" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="2:17" s="11" customFormat="1">
+    <row r="44" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="2:17" s="11" customFormat="1">
+    <row r="45" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="2:17" s="11" customFormat="1">
+    <row r="46" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="2:17" s="11" customFormat="1">
+    <row r="47" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="2:17">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B48" s="2"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -6968,7 +6991,7 @@
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
     </row>
-    <row r="49" spans="2:17">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B49" s="2"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -6986,7 +7009,7 @@
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
     </row>
-    <row r="50" spans="2:17">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B50" s="2"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -7004,7 +7027,7 @@
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
     </row>
-    <row r="51" spans="2:17">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B51" s="2"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -7022,7 +7045,7 @@
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
     </row>
-    <row r="52" spans="2:17">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B52" s="2"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -7040,7 +7063,7 @@
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
     </row>
-    <row r="53" spans="2:17">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B53" s="2"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -7058,7 +7081,7 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
     </row>
-    <row r="54" spans="2:17">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B54" s="2"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -7076,7 +7099,7 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="2:17">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B55" s="2"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -7094,7 +7117,7 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="2:17">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B56" s="2"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -7112,58 +7135,58 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="2:17">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="2:17">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="2:17">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B59" s="2"/>
       <c r="C59" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="2:17">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B60" s="2"/>
       <c r="C60" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="2:17">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B61" s="2"/>
       <c r="C61" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="2:17">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B62" s="2"/>
       <c r="C62" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="2:17" s="11" customFormat="1">
+    <row r="63" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="2:17" s="11" customFormat="1">
+    <row r="64" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="2:17">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B65" s="2"/>
       <c r="C65" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="2:17">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="2:17" s="11" customFormat="1">
+    <row r="67" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="2"/>
       <c r="C67" s="4">
         <v>150</v>
@@ -7185,7 +7208,7 @@
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
     </row>
-    <row r="68" spans="2:17" s="11" customFormat="1">
+    <row r="68" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2"/>
       <c r="C68" s="8" t="s">
         <v>126</v>
@@ -7205,15 +7228,15 @@
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
     </row>
-    <row r="69" spans="2:17">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="2:17">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B70" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="2:17">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B71" s="2"/>
       <c r="C71" s="4" t="s">
         <v>105</v>
@@ -7225,7 +7248,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="2:17">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B72" s="2"/>
       <c r="C72" s="4" t="s">
         <v>106</v>
@@ -7237,7 +7260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="2:17">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B73" s="2"/>
       <c r="C73" s="4" t="s">
         <v>107</v>
@@ -7246,7 +7269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:17" s="11" customFormat="1">
+    <row r="74" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -7264,7 +7287,7 @@
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
     </row>
-    <row r="75" spans="2:17">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B75" s="2" t="s">
         <v>92</v>
       </c>
@@ -7286,7 +7309,7 @@
       <c r="P75" s="11"/>
       <c r="Q75" s="11"/>
     </row>
-    <row r="76" spans="2:17">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B76" s="2"/>
       <c r="C76" s="4" t="s">
         <v>93</v>
@@ -7296,7 +7319,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="2:17">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.15">
       <c r="D77" s="4" t="s">
         <v>66</v>
       </c>
@@ -7304,7 +7327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="2:17">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C78" s="4" t="s">
         <v>94</v>
       </c>
@@ -7315,7 +7338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:17">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C79" s="4" t="s">
         <v>95</v>
       </c>
@@ -7326,7 +7349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="2:17">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C80" s="4" t="s">
         <v>96</v>
       </c>
@@ -7337,22 +7360,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="2:31">
+    <row r="82" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C82" s="62" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="83" spans="2:31">
+    <row r="83" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="2:31">
+    <row r="84" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C84" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="85" spans="2:31">
+    <row r="85" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C85" s="4" t="s">
         <v>24</v>
       </c>
@@ -7360,7 +7383,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="2:31">
+    <row r="86" spans="2:31" x14ac:dyDescent="0.15">
       <c r="D86" s="4" t="s">
         <v>119</v>
       </c>
@@ -7368,7 +7391,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="2:31" s="11" customFormat="1">
+    <row r="87" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C87" s="46" t="s">
         <v>157</v>
       </c>
@@ -7379,21 +7402,21 @@
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="2:31" s="11" customFormat="1">
+    <row r="88" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B88" s="62"/>
       <c r="C88" s="63"/>
       <c r="D88" s="62" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="89" spans="2:31">
+    <row r="89" spans="2:31" x14ac:dyDescent="0.15">
       <c r="D89" s="76" t="s">
         <v>274</v>
       </c>
       <c r="E89" s="76"/>
     </row>
-    <row r="90" spans="2:31" s="11" customFormat="1"/>
-    <row r="91" spans="2:31">
+    <row r="90" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="s">
         <v>121</v>
       </c>
@@ -7401,7 +7424,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="2:31" s="11" customFormat="1">
+    <row r="92" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
@@ -7421,8 +7444,8 @@
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
     </row>
-    <row r="93" spans="2:31" s="11" customFormat="1"/>
-    <row r="94" spans="2:31" s="11" customFormat="1">
+    <row r="93" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B94" s="11" t="s">
         <v>170</v>
       </c>
@@ -7433,43 +7456,43 @@
       <c r="V94" s="41"/>
       <c r="AD94" s="40"/>
     </row>
-    <row r="95" spans="2:31" s="11" customFormat="1">
+    <row r="95" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="U95" s="40"/>
       <c r="V95" s="41"/>
       <c r="AD95" s="40"/>
       <c r="AE95" s="41"/>
     </row>
-    <row r="96" spans="2:31" s="11" customFormat="1">
+    <row r="96" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="U96" s="40"/>
       <c r="V96" s="41"/>
       <c r="AD96" s="40"/>
       <c r="AE96" s="41"/>
     </row>
-    <row r="97" spans="2:31" s="11" customFormat="1">
+    <row r="97" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="U97" s="40"/>
       <c r="V97" s="41"/>
       <c r="AD97" s="40"/>
       <c r="AE97" s="41"/>
     </row>
-    <row r="98" spans="2:31" s="11" customFormat="1">
+    <row r="98" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="U98" s="40"/>
       <c r="V98" s="41"/>
       <c r="AD98" s="40"/>
       <c r="AE98" s="41"/>
     </row>
-    <row r="99" spans="2:31" s="11" customFormat="1">
+    <row r="99" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="U99" s="40"/>
       <c r="V99" s="43"/>
       <c r="AD99" s="40"/>
       <c r="AE99" s="43"/>
     </row>
-    <row r="100" spans="2:31" s="11" customFormat="1">
+    <row r="100" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="U100" s="40"/>
       <c r="V100" s="41"/>
       <c r="AD100" s="40"/>
       <c r="AE100" s="41"/>
     </row>
-    <row r="101" spans="2:31">
+    <row r="101" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -7482,7 +7505,7 @@
       <c r="AD101" s="40"/>
       <c r="AE101" s="42"/>
     </row>
-    <row r="102" spans="2:31" s="11" customFormat="1">
+    <row r="102" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -7496,7 +7519,7 @@
       <c r="AD102" s="40"/>
       <c r="AE102" s="42"/>
     </row>
-    <row r="103" spans="2:31" s="11" customFormat="1">
+    <row r="103" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B103" s="4"/>
       <c r="H103" s="11" t="s">
         <v>226</v>
@@ -7506,24 +7529,24 @@
       <c r="AD103" s="44"/>
       <c r="AE103" s="45"/>
     </row>
-    <row r="104" spans="2:31" s="11" customFormat="1"/>
-    <row r="105" spans="2:31" s="11" customFormat="1"/>
-    <row r="106" spans="2:31" s="11" customFormat="1"/>
-    <row r="107" spans="2:31" s="11" customFormat="1"/>
-    <row r="108" spans="2:31" s="11" customFormat="1"/>
-    <row r="109" spans="2:31" s="11" customFormat="1">
+    <row r="104" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H109" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="110" spans="2:31" s="11" customFormat="1"/>
-    <row r="111" spans="2:31" s="11" customFormat="1"/>
-    <row r="112" spans="2:31" s="11" customFormat="1">
+    <row r="110" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B112" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:17" s="11" customFormat="1">
+    <row r="113" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C113" s="40" t="s">
         <v>147</v>
       </c>
@@ -7532,7 +7555,7 @@
       <c r="F113" s="42"/>
       <c r="Q113" s="4"/>
     </row>
-    <row r="114" spans="2:17" s="11" customFormat="1">
+    <row r="114" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C114" s="40"/>
       <c r="D114" s="41" t="s">
         <v>148</v>
@@ -7540,7 +7563,7 @@
       <c r="E114" s="41"/>
       <c r="F114" s="42"/>
     </row>
-    <row r="115" spans="2:17" s="11" customFormat="1">
+    <row r="115" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C115" s="40" t="s">
         <v>149</v>
       </c>
@@ -7548,7 +7571,7 @@
       <c r="E115" s="41"/>
       <c r="F115" s="42"/>
     </row>
-    <row r="116" spans="2:17" s="11" customFormat="1">
+    <row r="116" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C116" s="40"/>
       <c r="D116" s="41" t="s">
         <v>150</v>
@@ -7556,7 +7579,7 @@
       <c r="E116" s="41"/>
       <c r="F116" s="42"/>
     </row>
-    <row r="117" spans="2:17" s="11" customFormat="1">
+    <row r="117" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C117" s="40" t="s">
         <v>151</v>
       </c>
@@ -7564,7 +7587,7 @@
       <c r="E117" s="41"/>
       <c r="F117" s="42"/>
     </row>
-    <row r="118" spans="2:17" s="11" customFormat="1">
+    <row r="118" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C118" s="46" t="s">
         <v>157</v>
       </c>
@@ -7576,7 +7599,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="119" spans="2:17" s="11" customFormat="1">
+    <row r="119" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C119" s="46" t="s">
         <v>186</v>
       </c>
@@ -7588,7 +7611,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="2:17" s="11" customFormat="1">
+    <row r="120" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B120" s="4"/>
       <c r="C120" s="46" t="s">
         <v>157</v>
@@ -7602,7 +7625,7 @@
       </c>
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="2:17" s="11" customFormat="1">
+    <row r="121" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C121" s="46" t="s">
         <v>157</v>
       </c>
@@ -7614,7 +7637,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="2:17" s="11" customFormat="1">
+    <row r="122" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C122" s="46" t="s">
         <v>157</v>
       </c>
@@ -7626,79 +7649,86 @@
         <v>220</v>
       </c>
     </row>
-    <row r="123" spans="2:17" s="11" customFormat="1">
+    <row r="123" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C123" s="44" t="s">
         <v>152</v>
       </c>
       <c r="D123" s="45"/>
       <c r="E123" s="41"/>
     </row>
-    <row r="124" spans="2:17" s="11" customFormat="1">
+    <row r="124" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D124" s="11" t="s">
         <v>153</v>
       </c>
       <c r="E124" s="41"/>
     </row>
-    <row r="125" spans="2:17" s="11" customFormat="1">
+    <row r="125" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D125" s="11" t="s">
         <v>168</v>
       </c>
       <c r="E125" s="45"/>
       <c r="F125" s="42"/>
     </row>
-    <row r="126" spans="2:17" s="11" customFormat="1">
+    <row r="126" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C126" s="11" t="s">
         <v>171</v>
       </c>
       <c r="F126" s="43"/>
     </row>
-    <row r="127" spans="2:17" s="11" customFormat="1">
+    <row r="127" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D127" s="61" t="s">
         <v>236</v>
       </c>
       <c r="F127" s="43"/>
     </row>
-    <row r="128" spans="2:17" s="11" customFormat="1">
+    <row r="128" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C128" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="3:5" s="11" customFormat="1">
+    <row r="129" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D129" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="3:5" s="11" customFormat="1">
+    <row r="130" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E130" s="61" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="131" spans="3:5" s="11" customFormat="1"/>
-    <row r="132" spans="3:5" s="11" customFormat="1">
+    <row r="131" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="132" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D132" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="133" spans="3:5" s="11" customFormat="1"/>
-    <row r="134" spans="3:5" s="11" customFormat="1">
+    <row r="133" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="134" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E134" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="3:5" s="11" customFormat="1">
+    <row r="135" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E135" s="11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="136" spans="3:5" s="11" customFormat="1">
+    <row r="136" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E136" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="137" spans="3:5" s="11" customFormat="1"/>
-    <row r="138" spans="3:5" s="11" customFormat="1"/>
-    <row r="139" spans="3:5" s="11" customFormat="1"/>
-    <row r="140" spans="3:5" s="11" customFormat="1">
+    <row r="137" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E137" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="F137" s="61"/>
+      <c r="G137" s="61"/>
+      <c r="H137" s="61"/>
+    </row>
+    <row r="138" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="139" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="140" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C140" s="11" t="s">
         <v>113</v>
       </c>
@@ -7706,37 +7736,37 @@
         <v>110</v>
       </c>
     </row>
-    <row r="141" spans="3:5" s="11" customFormat="1"/>
-    <row r="142" spans="3:5" s="11" customFormat="1"/>
-    <row r="143" spans="3:5" s="11" customFormat="1"/>
-    <row r="144" spans="3:5" s="11" customFormat="1">
+    <row r="141" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="142" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D144" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="145" spans="2:13" s="11" customFormat="1"/>
-    <row r="146" spans="2:13" s="11" customFormat="1"/>
-    <row r="147" spans="2:13" s="11" customFormat="1"/>
-    <row r="148" spans="2:13" s="11" customFormat="1">
+    <row r="145" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="146" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="148" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D148" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="149" spans="2:13" s="11" customFormat="1"/>
-    <row r="150" spans="2:13" s="11" customFormat="1"/>
-    <row r="151" spans="2:13" s="11" customFormat="1"/>
-    <row r="152" spans="2:13" s="11" customFormat="1"/>
-    <row r="153" spans="2:13" s="11" customFormat="1">
+    <row r="149" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="150" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="151" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="152" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="153" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C153" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="154" spans="2:13" s="11" customFormat="1">
+    <row r="154" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C154" s="61" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="155" spans="2:13" s="11" customFormat="1">
+    <row r="155" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C155" s="61" t="s">
         <v>250</v>
       </c>
@@ -7746,7 +7776,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="156" spans="2:13" s="11" customFormat="1">
+    <row r="156" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B156" s="46" t="s">
         <v>157</v>
       </c>
@@ -7757,13 +7787,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="157" spans="2:13" s="11" customFormat="1"/>
-    <row r="158" spans="2:13" s="11" customFormat="1">
+    <row r="157" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="158" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C158" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="2:13" s="11" customFormat="1">
+    <row r="159" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B159" s="11" t="s">
         <v>56</v>
       </c>
@@ -7771,29 +7801,29 @@
         <v>134</v>
       </c>
     </row>
-    <row r="160" spans="2:13" s="11" customFormat="1"/>
-    <row r="161" s="11" customFormat="1"/>
-    <row r="162" s="11" customFormat="1"/>
-    <row r="163" s="11" customFormat="1"/>
-    <row r="164" s="11" customFormat="1"/>
-    <row r="165" s="11" customFormat="1"/>
-    <row r="166" s="11" customFormat="1"/>
-    <row r="167" s="11" customFormat="1"/>
-    <row r="168" s="11" customFormat="1"/>
-    <row r="169" s="11" customFormat="1"/>
-    <row r="170" s="11" customFormat="1"/>
-    <row r="171" s="11" customFormat="1"/>
-    <row r="172" s="11" customFormat="1"/>
-    <row r="173" s="11" customFormat="1"/>
-    <row r="174" s="11" customFormat="1"/>
-    <row r="175" s="11" customFormat="1"/>
-    <row r="176" s="11" customFormat="1"/>
-    <row r="177" spans="2:18" s="11" customFormat="1"/>
-    <row r="178" spans="2:18" s="11" customFormat="1"/>
-    <row r="179" spans="2:18" s="11" customFormat="1">
+    <row r="160" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="161" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="162" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="163" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="164" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="165" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="166" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="167" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="168" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="169" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="170" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="171" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="172" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="173" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="174" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="175" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="176" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="177" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="178" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="179" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="M179" s="4"/>
     </row>
-    <row r="180" spans="2:18" s="11" customFormat="1">
+    <row r="180" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B180" s="43" t="s">
         <v>154</v>
       </c>
@@ -7805,18 +7835,18 @@
       </c>
       <c r="M180" s="4"/>
     </row>
-    <row r="181" spans="2:18" s="11" customFormat="1">
+    <row r="181" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B181" s="43"/>
       <c r="C181" s="49"/>
     </row>
-    <row r="182" spans="2:18" s="11" customFormat="1">
+    <row r="182" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B182" s="43" t="s">
         <v>155</v>
       </c>
       <c r="J182" s="43"/>
       <c r="M182" s="4"/>
     </row>
-    <row r="183" spans="2:18" s="11" customFormat="1">
+    <row r="183" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B183" s="46" t="s">
         <v>157</v>
       </c>
@@ -7833,7 +7863,7 @@
       </c>
       <c r="M183" s="4"/>
     </row>
-    <row r="184" spans="2:18" s="11" customFormat="1">
+    <row r="184" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B184" s="63"/>
       <c r="C184" s="11" t="s">
         <v>234</v>
@@ -7845,19 +7875,19 @@
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
     </row>
-    <row r="185" spans="2:18" s="11" customFormat="1">
+    <row r="185" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C185" s="11" t="s">
         <v>156</v>
       </c>
       <c r="M185" s="4"/>
     </row>
-    <row r="186" spans="2:18" s="11" customFormat="1">
+    <row r="186" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="K186" s="4"/>
       <c r="L186" s="4"/>
       <c r="M186" s="4"/>
       <c r="R186" s="4"/>
     </row>
-    <row r="187" spans="2:18" s="11" customFormat="1">
+    <row r="187" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B187" s="11" t="s">
         <v>56</v>
       </c>
@@ -7869,7 +7899,7 @@
       <c r="M187" s="4"/>
       <c r="R187" s="4"/>
     </row>
-    <row r="188" spans="2:18" s="11" customFormat="1">
+    <row r="188" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C188" s="11" t="s">
         <v>134</v>
       </c>
@@ -7881,7 +7911,7 @@
       <c r="P188" s="4"/>
       <c r="Q188" s="4"/>
     </row>
-    <row r="189" spans="2:18" s="11" customFormat="1" ht="17.25">
+    <row r="189" spans="2:18" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B189" s="46" t="s">
         <v>157</v>
       </c>
@@ -7900,7 +7930,7 @@
       <c r="Q189" s="4"/>
       <c r="R189" s="4"/>
     </row>
-    <row r="190" spans="2:18" s="11" customFormat="1">
+    <row r="190" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D190" s="64" t="s">
         <v>222</v>
       </c>
@@ -7909,7 +7939,7 @@
       <c r="M190" s="4"/>
       <c r="R190" s="4"/>
     </row>
-    <row r="191" spans="2:18" s="11" customFormat="1">
+    <row r="191" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B191" s="11" t="s">
         <v>215</v>
       </c>
@@ -7921,7 +7951,7 @@
       <c r="P191" s="4"/>
       <c r="Q191" s="4"/>
     </row>
-    <row r="192" spans="2:18" s="11" customFormat="1">
+    <row r="192" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C192" s="11" t="s">
         <v>175</v>
       </c>
@@ -7934,7 +7964,7 @@
       <c r="Q192" s="4"/>
       <c r="R192" s="4"/>
     </row>
-    <row r="193" spans="1:25" s="11" customFormat="1">
+    <row r="193" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B193" s="11" t="s">
         <v>172</v>
       </c>
@@ -7943,7 +7973,7 @@
       <c r="M193" s="4"/>
       <c r="R193" s="4"/>
     </row>
-    <row r="194" spans="1:25" s="11" customFormat="1">
+    <row r="194" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B194" s="46" t="s">
         <v>157</v>
       </c>
@@ -7962,7 +7992,7 @@
       <c r="Q194" s="4"/>
       <c r="R194" s="4"/>
     </row>
-    <row r="195" spans="1:25" s="11" customFormat="1">
+    <row r="195" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B195" s="11" t="s">
         <v>174</v>
       </c>
@@ -7978,7 +8008,7 @@
       <c r="Q195" s="4"/>
       <c r="R195" s="4"/>
     </row>
-    <row r="196" spans="1:25" s="11" customFormat="1">
+    <row r="196" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
       <c r="M196" s="4"/>
@@ -7988,7 +8018,7 @@
       <c r="Q196" s="4"/>
       <c r="R196" s="4"/>
     </row>
-    <row r="197" spans="1:25" s="11" customFormat="1">
+    <row r="197" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="K197" s="4"/>
       <c r="L197" s="4"/>
       <c r="M197" s="4"/>
@@ -7998,7 +8028,7 @@
       <c r="Q197" s="4"/>
       <c r="R197" s="4"/>
     </row>
-    <row r="198" spans="1:25">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11" t="s">
@@ -8017,7 +8047,7 @@
       <c r="X198" s="11"/>
       <c r="Y198" s="11"/>
     </row>
-    <row r="199" spans="1:25">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
@@ -8036,7 +8066,7 @@
       <c r="X199" s="11"/>
       <c r="Y199" s="11"/>
     </row>
-    <row r="200" spans="1:25" s="11" customFormat="1">
+    <row r="200" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E200" s="11" t="s">
         <v>143</v>
       </c>
@@ -8049,7 +8079,7 @@
       <c r="Q200" s="4"/>
       <c r="R200" s="4"/>
     </row>
-    <row r="201" spans="1:25">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A201" s="11" t="s">
         <v>135</v>
       </c>
@@ -8070,7 +8100,7 @@
       <c r="X201" s="11"/>
       <c r="Y201" s="11"/>
     </row>
-    <row r="202" spans="1:25">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11" t="s">
@@ -8083,7 +8113,7 @@
       <c r="I202" s="11"/>
       <c r="J202" s="11"/>
     </row>
-    <row r="203" spans="1:25" s="11" customFormat="1">
+    <row r="203" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E203" s="11" t="s">
         <v>123</v>
       </c>
@@ -8104,7 +8134,7 @@
       <c r="X203" s="4"/>
       <c r="Y203" s="4"/>
     </row>
-    <row r="204" spans="1:25">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
       <c r="E204" s="11"/>
@@ -8112,11 +8142,11 @@
       <c r="G204" s="11"/>
       <c r="H204" s="11"/>
     </row>
-    <row r="205" spans="1:25">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
     </row>
-    <row r="206" spans="1:25">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B206" s="38" t="s">
         <v>99</v>
       </c>
@@ -8124,38 +8154,38 @@
         <v>131</v>
       </c>
     </row>
-    <row r="207" spans="1:25">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
     </row>
-    <row r="208" spans="1:25">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C208" s="11"/>
     </row>
-    <row r="209" spans="2:3">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
     </row>
-    <row r="210" spans="2:3">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B210" s="11"/>
     </row>
-    <row r="211" spans="2:3">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
     </row>
-    <row r="213" spans="2:3">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C213" s="11"/>
     </row>
-    <row r="214" spans="2:3">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
     </row>
-    <row r="215" spans="2:3">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B215" s="11"/>
     </row>
-    <row r="217" spans="2:3">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B217" s="11"/>
     </row>
-    <row r="218" spans="2:3">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B218" s="2"/>
     </row>
   </sheetData>
@@ -8182,7 +8212,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="58.5" customWidth="1"/>
@@ -8194,7 +8224,7 @@
     <col min="18" max="18" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5">
+    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -8208,7 +8238,7 @@
       <c r="I1" s="28"/>
       <c r="J1" s="27"/>
     </row>
-    <row r="2" spans="1:21" ht="15">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>58</v>
       </c>
@@ -8222,15 +8252,15 @@
         <v>60</v>
       </c>
       <c r="G2" s="35"/>
-      <c r="H2" s="94" t="s">
+      <c r="H2" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="96"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
       <c r="O2" s="33" t="s">
         <v>136</v>
       </c>
@@ -8253,31 +8283,31 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.5">
+    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="48">
         <v>1</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="99" t="s">
+      <c r="G3" s="100"/>
+      <c r="H3" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="99"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
@@ -8286,29 +8316,29 @@
       <c r="T3" s="37"/>
       <c r="U3" s="37"/>
     </row>
-    <row r="4" spans="1:21" ht="16.5">
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="94" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="97" t="s">
+      <c r="G4" s="101"/>
+      <c r="H4" s="95" t="s">
         <v>212</v>
       </c>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="96"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
@@ -8317,21 +8347,21 @@
       <c r="T4" s="37"/>
       <c r="U4" s="37"/>
     </row>
-    <row r="5" spans="1:21" ht="16.5">
+    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="29"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="98"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="96"/>
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
@@ -8340,21 +8370,21 @@
       <c r="T5" s="37"/>
       <c r="U5" s="37"/>
     </row>
-    <row r="6" spans="1:21" ht="16.5">
+    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="29"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="30"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="98"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="96"/>
       <c r="O6" s="37"/>
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
@@ -8363,21 +8393,21 @@
       <c r="T6" s="37"/>
       <c r="U6" s="37"/>
     </row>
-    <row r="7" spans="1:21" ht="16.5">
+    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="29"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="98"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="96"/>
       <c r="O7" s="37"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
@@ -8386,21 +8416,21 @@
       <c r="T7" s="37"/>
       <c r="U7" s="37"/>
     </row>
-    <row r="8" spans="1:21" ht="16.5">
+    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="29"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="98"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="96"/>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
@@ -8409,21 +8439,21 @@
       <c r="T8" s="37"/>
       <c r="U8" s="37"/>
     </row>
-    <row r="9" spans="1:21" ht="16.5">
+    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="29"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="98"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="96"/>
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
@@ -8432,21 +8462,21 @@
       <c r="T9" s="37"/>
       <c r="U9" s="37"/>
     </row>
-    <row r="10" spans="1:21" ht="16.5">
+    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="29"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="98"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="98"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="96"/>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
@@ -8455,21 +8485,21 @@
       <c r="T10" s="37"/>
       <c r="U10" s="37"/>
     </row>
-    <row r="11" spans="1:21" ht="16.5">
+    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="29"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="98"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="98"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="96"/>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -8478,21 +8508,21 @@
       <c r="T11" s="37"/>
       <c r="U11" s="37"/>
     </row>
-    <row r="12" spans="1:21" ht="16.5">
+    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="29"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="98"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="96"/>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -8501,21 +8531,21 @@
       <c r="T12" s="37"/>
       <c r="U12" s="37"/>
     </row>
-    <row r="13" spans="1:21" ht="16.5">
+    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="29"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="98"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="96"/>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
@@ -8524,21 +8554,21 @@
       <c r="T13" s="37"/>
       <c r="U13" s="37"/>
     </row>
-    <row r="14" spans="1:21" ht="16.5">
+    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="29"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="98"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="98"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="96"/>
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
@@ -8547,21 +8577,21 @@
       <c r="T14" s="37"/>
       <c r="U14" s="37"/>
     </row>
-    <row r="15" spans="1:21" ht="16.5">
+    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="29"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="98"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="96"/>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
@@ -8570,21 +8600,21 @@
       <c r="T15" s="37"/>
       <c r="U15" s="37"/>
     </row>
-    <row r="16" spans="1:21" ht="16.5">
+    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="29"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="98"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="96"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
@@ -8593,21 +8623,21 @@
       <c r="T16" s="37"/>
       <c r="U16" s="37"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5">
+    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="29"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="98"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="96"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
@@ -8616,21 +8646,21 @@
       <c r="T17" s="37"/>
       <c r="U17" s="37"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5">
+    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="29"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="98"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="96"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
@@ -8639,21 +8669,21 @@
       <c r="T18" s="37"/>
       <c r="U18" s="37"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5">
+    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="29"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="98"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="96"/>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
@@ -8662,19 +8692,19 @@
       <c r="T19" s="37"/>
       <c r="U19" s="37"/>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="T20" s="37"/>
       <c r="U20" s="37"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="T21" s="37"/>
       <c r="U21" s="37"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="T22" s="37"/>
       <c r="U22" s="37"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5">
+    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -8695,7 +8725,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5">
+    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="T32" s="31"/>
       <c r="U32" s="31"/>
       <c r="V32" s="31"/>
@@ -8703,23 +8733,25 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="H14:N14"/>
     <mergeCell ref="H19:N19"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
@@ -8736,25 +8768,23 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8769,12 +8799,12 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
@@ -8785,7 +8815,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -8796,7 +8826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -8807,7 +8837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -8818,7 +8848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -8829,7 +8859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -8840,7 +8870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -8851,7 +8881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -8862,7 +8892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -8873,7 +8903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -8884,7 +8914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -8895,7 +8925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -8906,7 +8936,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -8917,7 +8947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -8928,7 +8958,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -8939,7 +8969,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -8950,7 +8980,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -8961,7 +8991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -8972,7 +9002,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -8983,7 +9013,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -8994,7 +9024,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -9005,7 +9035,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -9016,7 +9046,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -9027,7 +9057,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -9038,7 +9068,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -9049,7 +9079,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -9060,7 +9090,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -9071,7 +9101,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -9082,7 +9112,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -9093,7 +9123,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -9104,7 +9134,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -9115,7 +9145,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -9126,7 +9156,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -9137,7 +9167,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -9148,7 +9178,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -9159,7 +9189,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -9170,7 +9200,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -9181,7 +9211,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -9192,7 +9222,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -9203,7 +9233,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -9214,7 +9244,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -9225,7 +9255,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -9236,7 +9266,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -9247,7 +9277,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -9258,7 +9288,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -9269,7 +9299,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="12">
         <v>45</v>
       </c>
@@ -9280,7 +9310,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -9291,7 +9321,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="12">
         <v>47</v>
       </c>
@@ -9302,7 +9332,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="12">
         <v>48</v>
       </c>
@@ -9313,7 +9343,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="12">
         <v>49</v>
       </c>
@@ -9324,7 +9354,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="12">
         <v>50</v>
       </c>
@@ -9335,7 +9365,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="12">
         <v>51</v>
       </c>
@@ -9346,7 +9376,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="12">
         <v>52</v>
       </c>
@@ -9357,7 +9387,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="12">
         <v>53</v>
       </c>
@@ -9368,7 +9398,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="12">
         <v>54</v>
       </c>
@@ -9379,7 +9409,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="12">
         <v>55</v>
       </c>
@@ -9390,7 +9420,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="12">
         <v>56</v>
       </c>
@@ -9401,7 +9431,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -9412,7 +9442,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="12">
         <v>58</v>
       </c>
@@ -9423,7 +9453,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="12">
         <v>59</v>
       </c>
@@ -9434,7 +9464,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="12">
         <v>60</v>
       </c>
@@ -9445,7 +9475,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="12">
         <v>61</v>
       </c>
@@ -9456,7 +9486,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="12">
         <v>62</v>
       </c>
@@ -9467,7 +9497,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="12">
         <v>63</v>
       </c>
@@ -9478,7 +9508,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="12">
         <v>64</v>
       </c>
@@ -9489,7 +9519,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="12">
         <v>65</v>
       </c>
@@ -9500,7 +9530,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="12">
         <v>66</v>
       </c>
@@ -9511,7 +9541,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="12">
         <v>67</v>
       </c>
@@ -9522,7 +9552,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -9533,7 +9563,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="12">
         <v>69</v>
       </c>
@@ -9544,7 +9574,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="12">
         <v>70</v>
       </c>
@@ -9555,7 +9585,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="12">
         <v>71</v>
       </c>
@@ -9566,7 +9596,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="12">
         <v>72</v>
       </c>
@@ -9577,7 +9607,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -9588,7 +9618,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="12">
         <v>74</v>
       </c>
@@ -9599,7 +9629,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="12">
         <v>75</v>
       </c>
@@ -9610,7 +9640,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="12">
         <v>76</v>
       </c>
@@ -9621,7 +9651,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="12">
         <v>77</v>
       </c>
@@ -9632,7 +9662,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -9643,7 +9673,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -9654,7 +9684,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="12">
         <v>80</v>
       </c>
@@ -9665,7 +9695,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -9676,7 +9706,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="12">
         <v>82</v>
       </c>
@@ -9687,7 +9717,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="12">
         <v>83</v>
       </c>
@@ -9698,7 +9728,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="12">
         <v>84</v>
       </c>
@@ -9709,7 +9739,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="12">
         <v>85</v>
       </c>
@@ -9720,7 +9750,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="12">
         <v>86</v>
       </c>
@@ -9731,7 +9761,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="12">
         <v>87</v>
       </c>
@@ -9742,7 +9772,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="12">
         <v>88</v>
       </c>
@@ -9753,7 +9783,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="12">
         <v>89</v>
       </c>
@@ -9764,7 +9794,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="12">
         <v>90</v>
       </c>
@@ -9775,7 +9805,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="12">
         <v>91</v>
       </c>
@@ -9786,7 +9816,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="12">
         <v>92</v>
       </c>
@@ -9797,7 +9827,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="12">
         <v>93</v>
       </c>
@@ -9808,7 +9838,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="12">
         <v>94</v>
       </c>
@@ -9819,7 +9849,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="12">
         <v>95</v>
       </c>
@@ -9830,7 +9860,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="12">
         <v>96</v>
       </c>
@@ -9841,7 +9871,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="12">
         <v>97</v>
       </c>
@@ -9852,7 +9882,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="12">
         <v>98</v>
       </c>
@@ -9863,7 +9893,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="12">
         <v>99</v>
       </c>
@@ -9891,14 +9921,14 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="8" width="9" style="1"/>
     <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -9920,12 +9950,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -9936,7 +9966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -9954,7 +9984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -9972,7 +10002,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -9996,7 +10026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -10014,148 +10044,148 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:3" ht="96">
+    <row r="17" spans="2:3" ht="96" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
       <c r="C17" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" s="3"/>
     </row>
   </sheetData>
@@ -10173,14 +10203,14 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35.875" customWidth="1"/>
     <col min="2" max="2" width="37.375" customWidth="1"/>
     <col min="3" max="3" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
         <v>177</v>
       </c>
@@ -10210,7 +10240,7 @@
       <c r="V2" s="37"/>
       <c r="W2" s="37"/>
     </row>
-    <row r="3" spans="1:23" ht="16.5">
+    <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
@@ -10235,7 +10265,7 @@
       <c r="V3" s="37"/>
       <c r="W3" s="37"/>
     </row>
-    <row r="4" spans="1:23" ht="16.5">
+    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="50" t="s">
         <v>176</v>
       </c>
@@ -10266,7 +10296,7 @@
       <c r="V4" s="37"/>
       <c r="W4" s="37"/>
     </row>
-    <row r="5" spans="1:23" ht="16.5">
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>190</v>
       </c>
@@ -10297,7 +10327,7 @@
       <c r="V5" s="37"/>
       <c r="W5" s="37"/>
     </row>
-    <row r="6" spans="1:23" ht="16.5">
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>189</v>
       </c>
@@ -10328,7 +10358,7 @@
       <c r="V6" s="37"/>
       <c r="W6" s="37"/>
     </row>
-    <row r="7" spans="1:23" ht="16.5">
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>184</v>
       </c>
@@ -10359,7 +10389,7 @@
       <c r="V7" s="37"/>
       <c r="W7" s="37"/>
     </row>
-    <row r="8" spans="1:23" ht="16.5">
+    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="50" t="s">
         <v>178</v>
       </c>
@@ -10390,7 +10420,7 @@
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
     </row>
-    <row r="9" spans="1:23" ht="16.5">
+    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
         <v>242</v>
       </c>
@@ -10421,7 +10451,7 @@
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5">
+    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>195</v>
       </c>
@@ -10452,7 +10482,7 @@
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
     </row>
-    <row r="11" spans="1:23" ht="16.5">
+    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>194</v>
       </c>
@@ -10483,7 +10513,7 @@
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
     </row>
-    <row r="12" spans="1:23" ht="16.5">
+    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="69" t="s">
         <v>247</v>
       </c>
@@ -10514,7 +10544,7 @@
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>266</v>
       </c>
@@ -10545,7 +10575,7 @@
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="57"/>
       <c r="C14" s="57"/>
@@ -10570,7 +10600,7 @@
       <c r="V14" s="37"/>
       <c r="W14" s="37"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="37"/>
       <c r="B15" s="57"/>
       <c r="C15" s="57"/>
@@ -10595,7 +10625,7 @@
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" s="37"/>
       <c r="B16" s="57"/>
       <c r="C16" s="57"/>
@@ -10620,7 +10650,7 @@
       <c r="V16" s="37"/>
       <c r="W16" s="37"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17" s="37"/>
       <c r="B17" s="57"/>
       <c r="C17" s="57"/>
@@ -10645,7 +10675,7 @@
       <c r="V17" s="37"/>
       <c r="W17" s="37"/>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A18" s="37"/>
       <c r="B18" s="57"/>
       <c r="C18" s="57"/>
@@ -10670,7 +10700,7 @@
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A19" s="37"/>
       <c r="B19" s="57"/>
       <c r="C19" s="57"/>
@@ -10695,7 +10725,7 @@
       <c r="V19" s="37"/>
       <c r="W19" s="37"/>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20" s="37"/>
       <c r="B20" s="57"/>
       <c r="C20" s="57"/>
@@ -10720,7 +10750,7 @@
       <c r="V20" s="37"/>
       <c r="W20" s="37"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -10745,7 +10775,7 @@
       <c r="V21" s="37"/>
       <c r="W21" s="37"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -10770,7 +10800,7 @@
       <c r="V22" s="37"/>
       <c r="W22" s="37"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -10795,7 +10825,7 @@
       <c r="V23" s="37"/>
       <c r="W23" s="37"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -10820,7 +10850,7 @@
       <c r="V24" s="37"/>
       <c r="W24" s="37"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -10845,7 +10875,7 @@
       <c r="V25" s="37"/>
       <c r="W25" s="37"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -10870,7 +10900,7 @@
       <c r="V26" s="37"/>
       <c r="W26" s="37"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -10895,7 +10925,7 @@
       <c r="V27" s="37"/>
       <c r="W27" s="37"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -10920,7 +10950,7 @@
       <c r="V28" s="37"/>
       <c r="W28" s="37"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -10945,7 +10975,7 @@
       <c r="V29" s="37"/>
       <c r="W29" s="37"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -10970,7 +11000,7 @@
       <c r="V30" s="37"/>
       <c r="W30" s="37"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A31" s="37"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -10995,7 +11025,7 @@
       <c r="V31" s="37"/>
       <c r="W31" s="37"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -11020,7 +11050,7 @@
       <c r="V32" s="37"/>
       <c r="W32" s="37"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -11045,7 +11075,7 @@
       <c r="V33" s="37"/>
       <c r="W33" s="37"/>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
@@ -11085,54 +11115,54 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>202</v>
       </c>
@@ -11154,17 +11184,17 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>252</v>
       </c>
@@ -11181,7 +11211,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>254</v>
       </c>
@@ -11193,12 +11223,12 @@
       <c r="F26" s="72"/>
       <c r="G26" s="72"/>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>256</v>
       </c>
@@ -11206,7 +11236,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B52" s="71" t="s">
         <v>257</v>
       </c>
@@ -11216,7 +11246,7 @@
       <c r="D52" s="71"/>
       <c r="E52" s="71"/>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>261</v>
       </c>
@@ -11224,7 +11254,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B55" s="72" t="s">
         <v>260</v>
       </c>
